--- a/semana.xlsx
+++ b/semana.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,928 +424,751 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-que-indican-del-estado-del-volcan/202328/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/se-conocen-nuevas-hipotesis-sobre-los-gases-que-salen-de-la-laderas-de-cerro-bravo-en-la-via-manizales-fresno/202344/
 </t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y qué indican del estado del volcán?</t>
+          <t>Atentos: primera gran conclusión sobre gases que emanan de laderas de Cerro Bravo, entre Manizales y Fresno. No son volcánicos</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>La actividad en la que se mantiene el volcán Nevado del Ruiz arroja unas características que muestran su inestabilidad con indicadores como predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, aumento en la energía sísmica liberada, anomalías térmicas importantes en el fondo del cráter y variaciones de la desgasificación de dióxido de azufre y salida de vapor de agua desde el cráter a la atmósfera.
-Todos estos factores llevan a las autoridades de los municipios y departamentos ubicados en la zona de influencia, a los organismos de socorro, a la Unidad Nacional de Gestión del Riesgo de Desastres y al Servicio Geológico Colombiano a mantener la vigilancia sobre el edificio volcánico y las medidas de prevención.
-Las autoridades de salud recomiendan utilizar tapabocas para evitar afectaciones respirtatorias. - Foto: Magda Jimena Ríos Bedoya
-El nivel de actividad del volcán se mantiene en II o naranja, lo que indica erupción probable en días o semanas y uno de los factores que muestran su actividad y que más llama la atención, e incluso genera muchas dudas entre la comunidad, es el relacionado con la emisión de ceniza.
-Desde el SGC indicaron por ejemplo que el día 8 de mayo se presentaron emisiones pulsátiles de este material, las cuales fueron confirmadas a través de las cámaras web ubicadas en la zona para el monitoreo del volcán.
-Municipios en riesgo por el volcán Nevado del Ruiz ya cuentan con emisoras de emergencia
-La dispersión de la ceniza depende siempre de la dirección de los vientos y su altura máxima medida desde la cima del volcán tiene variaciones.
-Para avanzar en el proceso de preparación y educación frente a la actividad del volcán Nevado del Ruiz, desde el SGC indicaron que esta ceniza que cae sobre poblaciones de los departamentos de Tolima, Caldas, Risaralda y Quindío son partículas volcánicas con un tamaño menor a 2 mm.
-De acuerdo con la entidad, estas partículas pueden ser de rocas, vidrio o cristales de minerales, por lo que su composición puede variar dependiendo del tipo de volcán y erupción. Según los expertos, esta emisión es la consecuencia de procesos al interior del volcán.
-Se presenta un aumento en las magnitudes de los sismos registrados. - Foto: Magda Jimena Ríos Bedoya
-“En un proceso eruptivo, la presión del magma y sus gases pueden fragmentar la roca al interior del volcán en pedazos. Estos fragmentos salen a gran velocidad a través del cráter. Esto es más común en volcanes tipo explosivo. No todos los volcanes activos la emiten, sí puede ocurrir en volcanes con nivel de actividad amarillo, naranja y rojo”, indican desde el SGC.
-La preocupación de la comunidad frente a la caída de ceniza se debe a los daños que esta pueda generar en los cultivos y las afectaciones en la salud de ella y de los animales. En relación con estos aspectos, el Servicio Geológico Colombiano destacó que la acumulación de la caída de ceniza en la tierra puede enriquecer los minerales disponibles en el suelo.
-Atención | Doble temblor en Colombia sacudió el país este martes 9 de mayo
-“En general, las partículas volcánicas se componen de minerales como sodio, magnesio y potasio, elementos esenciales para las plantas”, aseveran.
-Sin embargo, destacan que la ceniza en grandes cantidades sobre la atmósfera puede afectar la calidad del agua y del aire, y generar efectos nocivos en el sistema respiratorio. Esto depende de la cercanía al volcán y la dirección de la dispersión.
-Ante la caída de ceniza desde el volcán Nevado del Ruiz, la Alcaldía de Manizales recomienda aplicar las siguientes medidas de protección:
-Evite exposiciones innecesarias. Permanezca en casa con las ventanas y puertas cerradas.
-Si tiene que salir, utilice tapabocas o un pañuelo humedecido con agua. Cubra nariz y boca.
-Evite el uso de lentes de contacto para no irritar los ojos.
-Cubra los alimentos y depósitos de agua.
-Limpie de ceniza los canales y los techos. Para adelantar este proceso, utilice una escoba.
-Volcán Nevado del Ruiz con columna de gases y/o ceniza. - Foto: Cortesía: Servicio Geológico Colombiano.</t>
+          <t>Tal como lo había anunciado el Servicio Geológico Colombiano (SGC), el día de ayer (domingo 21 de mayo), realizó análisis geoquímicos para determinar las causas de la anomalía que se está presentando de las laderas del volcán Cerro Bravo.
+Según los resultados de los análisis, el SGC confirmó que esta anomalía no está relacionada con eventos geológicos, y en particular con la actividad del volcán Cerro Bravo o del volcán Nevado del Ruiz, ubicado a aproximadamente 22 km de distancia y en nivel Naranja.
+Gases en la vía Manizales - Fresno no serían originados por el volcán Cerro Bravo
+Al igual que en las mediciones previas, se registraron altas concentraciones de gas metano (CH4), muy superiores a las que este gas suele tener en áreas volcánicas en el país y el mundo. Sumado a esto, no se ha registrado ningún cambio en la actividad del volcán -Cerro Bravo-, el cual hasta el momento continúa estable y se mantiene en nivel de actividad Verde (activo, pero en reposo).
+Adicionalmente, la ausencia de gases de origen volcánico como el dióxido de azufre (SO2) hacen aún más improbable este origen.
+La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras - Foto: Pantallazo video Tik Tok @jery..operador.560
+Entonces, ¿qué causa este fenómeno?
+Aunque se corroboró que en el punto de la anomalía el suelo registra altas temperaturas, cercanas a los 700 grados centígrados, no se encontró ningún indicador que demuestre que estas temperaturas, así como la salida de gases y vapores, tengan relación con la actividad del volcán, pues se encuentran muy focalizados y superficiales.
+Teniendo en cuenta que desde el 13 de mayo, cuando se recibió el reporte de la salida de gases en el sector, el SGC inspeccionó el lugar y sus alrededores, es importante recordar que la temperatura continúa aumentando, puesto que el pasado sábado habían reportado 600 grados centígrados.
+A partir de ese momento, la entidad ha estado presente en la zona y ha realizado todos los análisis correspondientes que incluyen, además de las mediciones geoquímicas, de temperatura del suelo y el reconocimiento geológico, cinco comisiones de campo en las que han participado varios especialistas.
+Flamas en Cerro Bravo - Foto: Captura de vídeo
+Los resultados obtenidos permiten deducir que esta anomalía tendría un origen diferente al volcánico, probablemente orgánico o producto de actividades humanas, por lo que de ahora en adelante los análisis están más allá de la competencia del SGC.
+Aunque el Servicio Geológico continuará apoyando a las autoridades locales y a los demás actores involucrados en todo lo relacionado con el conocimiento volcánico, es urgente la participación de otras entidades del orden nacional, con competencias en temas ambientales y de riesgo; así como de infraestructura vial, para la generación de nuevos datos que permitan determinar y delimitar el origen de este fenómeno.
+Atención: suspendieron el paso de gas natural en el tramo Mariquita–Cali por emergencia en tubería
+Fuego en las laderas
+Aunque se esclareció que este fenómeno no está relacionado con la actividad del Nevado del Ruíz, curiosos han estado llegando hasta el lugar para presenciar este fenómeno, suceso que ha quedado en video y ha sido difundido por redes sociales.
+En los clips se ve claramente cuando un ciudadano introduce una rama en una abertura al costado de la carretera y poco a poco se empieza a encender y a aumentar la flama.
+Flamas en Cerro Bravo - Foto: Captura de vídeo
+Transeúntes y habitantes del sector se han acercado a la zona, haciendo pequeños experimentos como poner hojas o ramas para ver en cuánto tiempo se consume.
+El día de ayer, domingo 21 de mayo, el Ministerio de Minas y Energía aseguró que de acuerdo con el reporte técnico, los valores de temperatura del subsuelo en este punto -Cerro Bravo- alcanzaron los 600 °C.
+Teniendo en cuenta que esta condición anormal, ubicada a una distancia de 1,5 metros y 1,80 metros de profundidad, está afectando el adecuado funcionamiento de la tubería correspondiente al gasoducto Mariquita-Cali, la empresa TGI decidió de manera preventiva aislar el tramo expuesto al riesgo.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/cucuta/articulo/municipios-en-riesgo-por-el-volcan-nevado-del-ruiz-ya-cuentan-con-emisoras-de-emergencia/202318/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/alerta-fuego-en-las-entranas-de-cerro-bravo-en-la-via-manizales-fresno-asi-quedo-registrado-en-un-video/202312/
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Municipios en riesgo por el volcán Nevado del Ruiz ya cuentan con emisoras de emergencia</t>
+          <t>Alerta: fuego en las entrañas de Cerro Bravo en la vía Manizales-Fresno. Así quedó registrado en un video</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Los habitantes de las zonas aledañas al volcán Nevado del Ruiz ya cuentan con cuatro nuevas emisoras de Interés Público de Atención y Prevención de Desastres que fueron autorizadas por el Ministerio de Tecnologías de la Información y Comunicaciones de Colombia (TIC).
-De acuerdo con la entidad, el objetivo de estas herramientas es brindar a la comunidad en general canales de comunicación que faciliten acciones de prevención, atención y recuperación ante una posible erupción del volcán Nevado del Ruiz.
-¿Por qué se mantiene la alerta naranja en el Nevado del Ruiz?
-Así las cosas, los municipios a los que se les otorgaron licencias para prestar el servicio de radiodifusión fueron Casabianca, Murillo, Villahermosa y Santa Isabel, en el departamento del Tolima; los tres primeros declarados en alto riesgo por la Unidad Nacional de Gestión del Riesgo.
-Volcán Nevado del Ruiz desde el Servicio Geológico Colombiano en Manizales - Foto: Servicio Geológico Colombiano
-“Con la entrada en funcionamiento de estas emisoras estamos entregando a la gente de la región la posibilidad de recibir información a tiempo sobre el estado de la emergencia del volcán, las recomendaciones de los organismos de atención e instrucciones que serán claves para evitar un desastre y salvaguardar vidas, que es nuestra prioridad”, afirmó el ministro TIC, Mauricio Lizcano.
-¿Puede desatarse una alerta roja en el Volcán Nevado del Ruiz en los próximos días?
-Las licencias de las emisoras que funcionarán en Frecuencia Modulada (F.M.) o en Amplitud Modulada (A.M.), se expidieron en tiempo récord, teniendo en cuenta la importancia del servicio que prestarán y la declaratoria de alerta naranja por la emergencia.
-Esto se desarrolló en un trabajo conjunto con la Agencia Nacional del Espectro, donde el trámite se pudo adelantar en menos de una semana y de esta manera hacer posible una comunicación efectiva, debido a que el Servicio Geológico Colombiano (SGC) advierte que posiblemente haya una erupción del volcán en días o semanas.
-Volcán Nevado del Ruiz sigue muy inestable. - Foto: Cortesía: Servicio Geológico Colombiano.
-Las licencias de concesión de las cuatro emisoras fueron solicitadas por las alcaldías de los municipios y serán estas las responsables de su manejo, administración y programación, que deberá girar en torno a temas relacionados con la emergencia por el volcán Nevado del Ruiz.
-“Contar con esta licencia es una excelente noticia. Una emisora es la forma que tiene la gente para comunicarse; a través de la radio podemos informar lo qué pasa con el volcán de manera permanente e inmediata”, explicó el alcalde de Murillo, Antonio José García.
-Cabe mencionar que las emisoras podrán funcionar mientras se mantenga la declaratoria de desastre o de situación de calamidad en los municipios donde operan, tiempo que podrá ser prorrogado, siempre y cuando se sustente la necesidad de contar con dicho canal de comunicación para la etapa de recuperación de una eventual emergencia.
-(imagen de referencia). - Foto: Getty Images/iStockphoto
-Además de esas cuatro emisoras, se espera entregar en los próximos días la licencia de radiodifusión a los pobladores de Herveo, también en Tolima. Sin embargo, el Ministerio TIC continúa a la espera de la documentación requerida por parte del municipio.
-Así las cosas, el experto pidió no dejar de prestar atención a las informaciones que emitan las autoridades.
-“Es importante estar muy pendientes, aunque no quiere decir entonces que en este momento va a tener que hacer una erupción, sino que estas condiciones a veces hacen que las autoridades y la comunidad general se acostumbren a ciertos niveles de actividad que no son normales. Hay que estar muy atentos a la información oficial del Servicio Geológico Colombiano y la Unidad Nacional de este riesgo, y de la misma manera con las autoridades locales y departamentales de Gestión de Riesgo”, señaló John Makario Londoño, director técnico de geoamenazas del SGC.</t>
+          <t>En los últimos días, la preocupación en el departamento de Caldas ha incrementado, luego de que se conocieran gases que salen de una de las laderas del sector conocido como Cerro Bravo, en la vía Manizales-Fresno.
+De acuerdo con el Servicio Geológico Colombiano (SGC), es poco probable que estos gases sean realmente de origen volcánico. “De acuerdo con los resultados de las inspecciones y estudios realizados hasta el momento, esta anomalía no obedece a la actividad de este volcán y se abre la posibilidad de que se deba a la degradación de materia orgánica en el lugar”, señala el comunicado.
+Aunque se esclareció que este fenómeno no está relacionado con la actividad del Nevado del Ruíz, curiosos han estado llegando hasta el lugar para presenciar este fenómeno, suceso que ha quedado en video y ha sido difundido por redes sociales.
+Flamas en Cerro Bravo - Foto: Captura de vídeo
+En los clips se ve claramente cuando un ciudadano introduce una rama en una abertura al costado de la carretera y poco a poco se empieza a encender y a aumentar la flama.
+Transeúntes y habitantes del sector se han acercado a la zona, haciendo pequeños experimentos como poner hojas o ramas para ver en cuánto tiempo se consume.
+Flamas en Cerro Bravo - Foto: Captura de vídeo
+Aunque el SGC anuncia que continuará con las investigaciones de acuerdo con su experiencia geocientífica, explica que en la medición del pasado 17 de mayo se pudo comprobar que el gas metano que sale de la ladera del volcán Cerro Bravo, ubicado en cercanías al municipio de Herveo, Tolima, tiene concentraciones muy superiores a las de las áreas volcánicas, incluso las del propio Nevado del Ruíz.
+Gases en la vía Manizales - Fresno no serían originados por el volcán Cerro Bravo
+El Ministerio de Minas se pronuncia
+Debido a la anomalía térmica asociada al subsuelo y que fue detectada en el sector conocido como Cerro Bravo, municipio de Herveo, Tolima, el Ministerio de Minas y Energías se manifestó ante la situación y envió algunas advertencias a los ciudadanos.
+MinMinas aseguró que de acuerdo con el reporte técnico, los valores de temperatura del subsuelo en este punto -Cerro Bravo- alcanzaron los 600 °C.
+Teniendo en cuenta que esta condición anormal, ubicada a una distancia de 1,5 metros y 1,80 metros de profundidad, podría llegar a afectar el adecuado funcionamiento de la tubería correspondiente al gasoducto Mariquita-Cali, la empresa TGI decide de manera preventiva aislar el tramo expuesto al riesgo.
+Por otro lado, los resultados de las inspecciones y análisis realizados hasta el momento por el Servicio Geológico Colombiano (SGC), esta anomalía no obedece a la actividad del volcán Cerro Bravo, que actualmente se encuentra en nivel verde (activo, pero en reposo).
+Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas
+Sin embargo, con el fin de contribuir al esclarecimiento del origen de este fenómeno, este domingo, especialistas de esta entidad nuevamente harán mediciones de la temperatura del suelo y evaluarán la presencia de dióxido de azufre (S02); inspeccionarán la incandescencia que hay en uno de los puntos de salida de gases, y estimarán el flujo de varios gases presentes en el suelo: dióxido de car bono (C02), sulfuro de hidrógeno (H2S), y metano (CH4).
+Cerro Bravo es un estratovolcán compuesto por varias capas de lava endurecida y piroclastos - Foto: Pantallazo video Tik Tok @jery..operador.560
+“Desde el Ministerio de Energía conjuntamente con las empresas comercializadoras, se invita a los usuarios, en particular, a los habitantes de los departamentos de Caldas, Tolima, Risaralda, Quindío, Valle del Cauca y Cauca, a hacer un uso eficiente del gas natural mientras se restablece el servicio”, expresaron.
+Hay que destacar que desde el reporte del caso, el Consejo Nacional de Operación de Gas Natural (CNO), liderado por el Ministerio de Energía y del cual forman parte entidades del Gobierno nacional y las empresas comercializadoras y transportadora; vienen adelantando acciones técnicas y operativas urgentes, para tener alternativas de conexiones y transporte gas y mitigar la afectación en la prestación del servicio a los usuarios.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-que-se-mantiene-la-alerta-naranja-en-el-nevado-del-ruiz/202307/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/gases-en-la-via-manizales-fresno-no-serian-originados-por-el-volcan-cerro-bravo/202319/
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>¿Por qué se mantiene la alerta naranja en el Nevado del Ruiz?</t>
+          <t>Gases en la vía Manizales - Fresno no serían originados por el volcán Cerro Bravo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz, debido a que su nivel de actividad continúa en naranja desde que se reportó esta situación a principios de abril.
-Por tal motivo, todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable; sin embargo, esto tendría una explicación lógica, según lo dio a conocer John Makario Londoño, director técnico de Geoamenazas del SGC.
-¿Puede desatarse una alerta roja en el Volcán Nevado del Ruiz en los próximos días?
-De acuerdo con la entidad, la actividad del volcán al día de hoy 8 de mayo es similar a la del domingo 7 de mayo, debido a que se han detectado algunas anomalías térmicas que han alcanzado valores mayores a los que se han podido detectar en días anteriores.
-La actividad del volcán sigue siendo muy inestable. - Foto: Cortesía Alcaldía de Manizales
-“Aunque hay sismicidad de fractura, este está en baja cantidad y baja energía. Normalmente, se localizan en el cráter en sus alrededores y lo que más predomina es que sigue siendo la actividad sísmica asociada a esta actividad fluidos al interior del cráter, sobre todo la salida de emisión de gases y ceniza por las fumarolas que tiene el volcán y predominan o continúan predominando las anomalías térmicas, algunas de ellas con valores importantes”, señaló Londoño.
-El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?
-Esto quiere decir que es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros.
-“El volcán continúa en niveles inestables y, por lo tanto, esta actividad naranja que es la probabilidad de que haga erupción en días o semanas se mantiene. Por eso es importante seguir las recomendaciones las autoridades”, detalló el director técnico de Geoamenazas del SGC.
-John Makario Londoño, director técnico de Geoamenazas del Servicio Geológico Colombiano sobre la actividad del volcán Nevado del Ruiz. - Foto: Captura de video Servicio Geológico Colombiano
-Cabe mencionar que este mismo experto recalcó en días pasados que la actividad del volcán no se puede volver parte del paisaje y que los ciudadanos no deben acostumbrarse a las condiciones actuales, pues se debe tener presente que aún son anómalas.
-Así mismo, afirmó que el nivel de actividad se mantendrá como está y explicó por qué no va a variar de momento. Además, señaló que la calma puede ser señal de una erupción, aunque no necesariamente vaya a ocurrir.
-“Este nivel naranja persistirá todavía porque el volcán no ha retornado a los niveles que tenía hace unos meses; segundo, no podemos cambiar a rojo tampoco porque la erupción uno no sabe si va a ocurrir o no realmente, y tercero, es importante recordar que a veces el volcán ha mostrado que cuando se calma mucho después de haber tenido una actividad sísmica y otro tipo mucho más alta, es cuando ha hecho erupciones”, enfatizó.
-Volcán Nevado del Ruiz en mayo. - Foto: Cortesía: Servicio Geológico Colombiano.
-Para que el nivel de actividad baje a amarillo tiene que pasar un tiempo prudencial “donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas”.
-Así las cosas, el experto pidió no dejar de prestar atención a las informaciones que emitan las autoridades. “Es importante estar muy pendientes, no quiere decir entonces que en este momento va a tener que hacer una erupción, sino que estas condiciones a veces hacen que las autoridades y la comunidad general se acostumbren a ciertos niveles de actividad que, vuelvo y repito, no son normales”, recalcó el director técnico de geoamenazas del SGC.</t>
+          <t>Desde el Servicio Geológico Colombiano (SGC), se ha dado a conocer una información, según la cual es poco probable que los gases que salen de una de las laderas del sector conocido como Cerro Bravo, en la vía Manizales - Fresno, sean realmente de origen volcánico.
+“De acuerdo con los resultados de las inspecciones y estudios realizados hasta el momento, esta anomalía no obedece a la actividad de este volcán y se abre la posibilidad de que se deba a la degradación de materia orgánica en el lugar”, señala el comunicado.
+No han determinado la causa de la salida de gases del sector Cerro Bravo - Foto: Cortesía Servicio Geológico Colombiano
+Se hace claridad, además, en que este fenómeno tampoco guarda ninguna relación con la actividad del volcán Nevado del Ruíz, el cual está localizado a 22 kilómetros aproximadamente de Cerro Bravo, y se mantiene en nivel naranja.
+Aunque el SGC anuncia que continuará con las investigaciones de acuerdo con su experiencia geocientífica, explica que en la medición del pasado 17 de mayo se pudo comprobar que el gas metano que sale de la ladera del volcán Cerro Bravo, ubicado en cercanías al municipio de Herveo, Tolima, tiene concentraciones muy superiores a las de las áreas volcánicas; incluso las del propio Nevado del Ruíz.
+Igualmente, se recuerda que el análisis y la evaluación integral de los parámetros de monitoreo del volcán Cerro Bravo muestran un comportamiento estable, lo que significa que es un complejo activo, pero en reposo y con muy poca actividad.
+Atentos: Risaralda ya no hace parte de la zona de evacuación del volcán Nevado del Ruiz
+Este volcán se monitorea desde el mes de septiembre en el año 1995, presentando un nivel de actividad verde a lo largo del tiempo, al igual que durante los últimos días.
+“Con base en esto, desde el SGC podemos inferir que esta anomalía no está relacionada con la actividad del volcán Cerro Bravo”, precisa la entidad.
+Entre los puntos que señala el SGC para descartar que los gases provengan de la actividad volcánica, está la superficialidad del fenómeno debido a que se presenta en una zona puntual de Cerro Bravo; ya que en sus alrededores no hay ningún cambio adicional.
+La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras - Foto: Pantallazo video Tik Tok @jery..operador.560
+También se tienen en cuenta las concentraciones del gas metano que se encontró, además de la estabilidad del volcán Cerro Bravo durante los 28 años en los cuales está siendo monitoreado.
+Justamente al tratarse de un fenómeno superficial, el SGC indica que la anomalía no genera ningún impacto sobre el sistema del volcán Cerro Bravo, ni tampoco en el Nevado del Ruíz, ya que cada volcán tiene una estructura propia y se rige por dinámicas diferentes, por lo que la actividad de cada uno es independiente.
+Es importante además tener presente que la Transportadora de Gas Internacional, (TGI), analizó la zona detenidamente y descartó que se tratara de una fuga en el gasoducto que pasa por el lugar.
+Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas
+Aunque se brindará acompañamiento a las autoridades locales y las entidades que estén involucradas en la investigación, el SGC aclara que no tendría competencia en el caso de que el fenómeno esté relacionado con la degradación de materia orgánica.
+Cerro Bravo es un volcán que está localizado en la Cordillera Central y es el punto más alto del municipio de Herveo en el departamento del Tolima, alcanzando los 4.000 metros sobre el nivel del mar.
+Como zonas pobladas más cercanas de este volcán formado hace aproximadamente 50.000 años, el cual está a 22 kilómetros del Nevado del Ruíz, se encuentra la ciudad de Manizales a una distancia de apenas 24 kilómetros.
+El SGC y la Unidad de Gestión del Riesgo de Caldas adelanta la investigación para determinar la causa del fenómeno - Foto: Pantallazo video Tik Tok @jery..operador.560
+Está compuesto por varias capas de lava endurecida y piroclastos, pero no tiene nieve en la cumbre debido a su altura. Cuenta con dos calderas de 1.5 y 1.0 kilómetros de diámetro; y su última erupción se calcula que ocurrió en el año 1720.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-recomiendan-continuar-con-las-medidas-de-prevencion-ante-el-aumento-de-sismos/202311/
+          <t xml:space="preserve">https://www.semana.com/nacion/pereira/articulo/atentos-risaralda-ya-no-hace-parte-de-la-zona-de-evacuacion-del-volcan-nevado-del-ruiz/202313/
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: recomiendan continuar con las medidas de prevención ante el aumento de sismos</t>
+          <t>Atentos: Risaralda ya no hace parte de la zona de evacuación del volcán Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.
-Así las cosas, las autoridades señalaron en su más reciente informe que durante el 8 de mayo y en lo que va de este martes, 9 de mayo, continúa el predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, la cual presenta un leve aumento en el número de sismos y en la energía sísmica liberada respecto al 7 de mayo.
-La actividad del volcán sigue siendo muy inestable - Foto: Cortesía Alcaldía de Manizales
-“Algunas señales sísmicas asociadas a este tipo de sismicidad han sido relacionadas con emisiones pulsátiles de ceniza confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico”, indicó el SGC.
-El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?
-Se pudo detallar que, durante el 7 de mayo, la actividad sísmica asociada a fracturamiento de roca dentro del edificio volcánico mostró un comportamiento similar en el número de sismos registrados y en la energía sísmica liberada, en comparación al día anterior.
-“Los sismos se localizaron en el cráter Arenas y de manera dispersa alrededor del mismo, a una distancia máxima de 5 km y a profundidades entre 1 y 6 km”, señala el comunicado.
-Con respecto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza observada fue de 1000 m medidos desde la cima del volcán y estuvo relacionada con una emisión de ceniza registrada el 8 de mayo a las 7:27 p. m.
-Volcán Nevado del Ruiz. Imagen de referencia. - Foto: Cortesía: Servicio Geológico Colombiano.
-“La dirección de dispersión preferencial de la columna de gases estuvo hacia el occidente - suroccidente y noroccidente del volcán. Desde las plataformas de monitoreo satelital, se observaron varias anomalías térmicas importantes en el fondo del cráter”, recalcó la entidad.
-Por otro lado, se mantienen las variaciones de la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera. “Estos indicadores ratifican que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable y que es necesario continuar con las medidas de prevención”, puntualizó el SGC.
-¿Puede desatarse una alerta roja en el Volcán Nevado del Ruiz en los próximos días?
-Así las cosas, es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán.
-Este es el nivel de opacidad en el que ha permanecido el imponente volcán nevado del Ruiz. - Foto: Servicio Geológico Colombiano
-“Para cambiar de nivel y retornar a nivel amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, aspectos que la actual actividad el volcán todavía no muestra. Por esta razón, desde el SGC advertimos que el nivel de actividad del volcán Nevado del Ruiz permanecerá en nivel naranja por varias semanas. Durante este tiempo, en caso de que se produzca una aceleración de los procesos que sugieran una erupción inminente o que se produzca la erupción en sí, el nivel de actividad se cambiará a rojo”, finaliza el comunicado.
-Ante esto, el Servicio Geológico Colombiano recomienda a la comunidad en general conservar la calma, seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y pide a las autoridades locales estar atentos a la información proporcionada sobre la evolución del estado del volcán.</t>
+          <t>Como balance del Puesto de Mando Unificado N°17 que se realiza en Colombia desde el 30 de marzo, cuando se declaró la alerta naranja, por actividad en el volcán Nevado del Ruiz, se determinó modificar la zona de evacuación.
+La información fue revelada por Olmedo López, director de la Unidad Nacional para la Gestión del Riesgo de Desastres -UNGRD-, la entidad, que indicó que la decisión fue tomada con el Servicio Geológico Colombiano, que está al frente de la vigilancia del edificio volcánico.
+Actividad del volcán Nevado del Ruiz. - Foto: Semana. - Foto: Magda Jimena Ríos Bedoya
+De acuerdo con el funcionario se mantienen las labores de evacuación y acciones de prevención para respuesta por el nivel de actividad naranja que se conserva del volcán.
+“Se precisó el área en un polígono donde se puede presentar mayor riesgo y se requiere mantener la evacuación preventiva de la población. Debido a su forma irregular es posible excluir algunas zonas de evacuación inmediata como es el caso del municipio de Santa Rosa de Cabal, departamento de Risaralda”, indicó el funcionario.
+Aclaró que el análisis realizado de la situación del volcán llevó a las autoridades reunidas en el Puesto de Mando Unificado a determinar que en otras zonas será ampliada el área a evacuar, como ocurre en inmediaciones de los cauces de los ríos Gualí, Azufrado, Lagunilla y Recio en el Tolima; y Rio Claro en Caldas.
+Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas
+“Es importante resaltar que los trabajos de preparación para respuesta se han realizado en el radio de 15 kilómetros donde se activaron las acciones conjuntas de las entidades del sistema nacional de Gestión del Riesgo de Desastres como la adecuación de vías, definición de rutas de evacuación, entre otras acciones”, aseveró.
+#AEstaHora | Director de la @UNGRD, @olmedolopezm, preside Puesto de Mando Unificado (PMU) No. 17 de seguimiento a las acciones que están desarrollando las entidades del Sistema Nacional de Gestión del Riesgo de Desastres (#SNGRD) por la actividad del #VolcánNevadoDelRuiz🧵 pic.twitter.com/mk8gCMbOAL
+— UNGRD🇨🇴 (@UNGRD) May 19, 2023
+Resaltó que, aunque en las zonas adoptadas no se encuentra ninguna cabecera municipal o centros poblados, sí existen algunos sectores rurales de Caldas y Tolima en donde se requiere una evacuación inmediata. Esto ocurre particularmente en las zonas cercanas a los ríos donde se amplió la cobertura.
+Les solicitó a los consejos municipales de gestión del riesgo verificar los lugares exactos en cada jurisdicción y anunció que para esto contarán con el apoyo de la Unidad Nacional de Gestión del Riesgo de Desastres.
+Los beneficiarios son habitantes de la zona rural de Villamaría, Caldas. Foto: Gobernación de Caldas. - Foto: Cortesía Gobernación de Caldas
+“En aquellos lugares ya definidos entre Caldas, Risaralda y un sector del Tolima donde pueden caer cenizas y formar acumulaciones con más de 10 centímetros no es necesario una evacuación inmediata pero sí es necesario adoptar medidas particulares como son los preparativos para las respuestas que estén definidas por cada autoridad municipal”, resaltó el director Olmedo López.
+Con relación a los animales y las personas que habitan en estas zonas aclaró que podrían presentar dificultades respiratorias y que es posible la contaminación y obstrucción de las fuentes de agua, la pérdida parcial o total de cultivos y ganado, cubrimiento y enterramiento de la superficie.
+Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
+El director de la UNGRD destacó que para las zonas de amenaza alta que se encuentran por fuera de las áreas de evacuación como es el caso de algunos sectores con flujo de lodo “es fundamental mantener los preparativos para la evacuación, consolidación, ejercicios de simulación y simulacros que involucren a las comunidades; así como la verificación y ajuste del sistema de alerta temprana”.
+La zona donde aumenta el radio de acción incluye en el Tolima 16 veredas del municipio de Murillo, 3 de Líbano, 1 de Herveo, 14 de Villahermosa y 6 de Casabianca. Adicionalmente de Caldas se incluye un municipio.
+“Eso significa que debemos de concentrar nuestros esfuerzos de revisión, evacuación y acompañamiento a los municipios. Se han destinado suficientes recursos para el territorio y si son necesarios se involucrarán más”, dijo.
+Con relación a la actividad del volcán Nevado del Ruiz, destacó que en las últimas semanas se ha mantenido el nivel por lo que es necesario seguir implementando las medidas de prevención y revisar las intervenciones en el territorio.
+En la zona rural se adelanta un trabajo de actualización del censo. Foto: Cortesía Alcaldía de Manizales. - Foto: Cortesía Alcaldía de Manizales</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-por-que-no-hay-que-relajarse-y-que-tiene-que-pasar-para-que-baje-el-nivel-de-actividad/202354/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-para-mejorar-la-comunicacion-en-los-municipios-de-influencia-instalaran-mas-de-50-antenas/202305/
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: ¿por qué no hay que relajarse y qué tiene que pasar para que baje el nivel de actividad?</t>
+          <t>Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aunque ha pasado más de un mes desde que se elevó a naranja el nivel de actividad del volcán Nevado del Ruiz, la probabilidad de que “haga una erupción mayor a las que ha hecho en los últimos diez años” sigue siendo latente, de acuerdo con el Servicio Geológico Colombiano (SGC).
-En ese sentido, John Makario Londoño, director técnico de geoamenazas del SGC, dijo que la actividad del volcán no se puede volver parte del paisaje y que los ciudadanos no deben acostumbrarse a las condiciones actuales, pues se debe tener presente que aún son anómalas.
-“Es importante recordar que uno no se puede acostumbrar a lo que no está normal, el volcán no está normal, o sea, el volcán tiene un nivel de actividad demasiado alto, pero que con los días se va acostumbrando uno a que, aunque salga ceniza, eso se va a volver normal”, aseguró.
-Volcán Nevado del Ruiz: Gobernación de Caldas adecúa vías para evacuar en caso de que haya erupción
-Y añade: “También continúan las anomalías térmicas en el fondo del cráter, como han podido ver, esta sismicidad y este comportamiento en general ha permanecido por varias semanas de una manera muy similar. Esto no quiere decir que el volcán ya retornó a sus niveles normales, por el contrario, esta sismicidad sigue siendo muy alta”.
-John Makario Londoño, director técnico de geoamenazas del Servicio Geológico Colombiano. - Foto: Servicio Geológico Colombiano
-El experto afirma que el nivel de actividad se mantendrá como está y explicó por qué no va a variar de momento. Además, señaló que la calma puede ser señal de una erupción, aunque no necesariamente vaya a ocurrir.
-Volcán Nevado del Ruiz el pasado 2 de mayo. - Foto: Cortesía: Servicio Geológico Colombiano.
-“Este nivel de naranja persistirá todavía porque el volcán no ha retornado a los niveles que tenía hace unos meses; segundo, no podemos cambiar a rojo tampoco porque la erupción uno no sabe si va a ocurrir o no realmente, y tercero, es importante recordar que a veces el volcán ha mostrado que cuando se calma mucho después de haber tenido una actividad sísmica y otro tipo mucho más alta, es cuando ha hecho erupciones”, enfatiza.
-Atento: esto es lo que debe hacer antes, durante y después de la erupción de un volcán
-Para que el nivel de actividad baje a amarillo tiene que pasar un tiempo prudencial “donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, el cual puede extenderse a varias semanas”.
-Así las cosas, el experto pidió no dejar de prestar atención a las informaciones que emitan las autoridades.
-El SGC monitorea constantemente la actividad del volcán Nevado del Ruiz. - Foto: Servicio Geológico de Colombia
-“Es importante estar muy pendientes, no quiere decir entonces que en este momento va a tener que hacer una erupción, sino que estas condiciones a veces hacen que las autoridades y la comunidad general se acostumbren a ciertos niveles de actividad que, vuelvo y repito, no son normales. Hay que estar muy atentos a la información oficial del Servicio Geológico Colombiano y la Unidad Nacional de este riesgo, y de la misma manera con las autoridades locales y departamentales de Gestión de Riesgo”, anotó.</t>
+          <t>Para avanzar en la preparación ante una eventual erupción del volcán Nevado del Ruiz, continúan los procesos de actualización de los censos de las familias ubicadas en la zona de influencia, jornadas de educación y adecuación de vías de evacuación, entre otras intervenciones.
+A esto se suma el anuncio realizado por el ministro de las TIC, Mauricio Lizcano Arango relacionado con la instalación de 50 nuevas antenas para mejorar la comunicación de los habitantes de la zona.
+El ministro anunció la instalación de antenas para mejorar las comunicaciones en la zona de influencia del volcán. - Foto: Cortesía Gobernación de Caldas
+“Estos puntos de conexión estarán ubicados en zonas de Caldas, Tolima y Risaralda para que conectemos a través de antenas la prestación del servicio de celular de los cuatro operadores en toda esta región”, anunció el ministro.
+Los equipos serán ubicados por las diferentes empresas operadoras. Los anuncios incluyen la ubicación de parte de Tigo de nuevas antenas en los 14 municipios de los cinco departamentos cercanos al Nevado del Ruiz. En este caso puntual la meta es lograr una cobertura total de 280 puntos en los linderos del volcán.
+¿Cuál es la actualidad de los volcanes activos de Colombia? Este es el reporte del Servicio Geológico Colombiano
+De acuerdo con Lizcano Arango, el objetivo es mejorar los problemas de cobertura “en la parte alta de Villamaría, los inconvenientes de conexión en el kilómetro 41 que pertenece a Manizales y en el municipio de Chinchiná y en las zonas altas. En Risaralda hay cuatro localidades que están también con este tipo de problemas”.
+Frente a este tema se conoció que el operador Claro lleva a cabo diferentes acciones de refuerzo y ampliación de cobertura en 24 sectores rurales de Caldas, 17 de Risaralda y 13 del Tolima. Destacan que los trabajos de ampliación de red que adelanta la compañía buscan que los habitantes de algunos sectores de Manizales, Chinchiná y Palestina, puedan mantenerse en contacto con las autoridades y sus familiares en cualquier momento, además de ser una herramienta para dar alertas tempranas.
+El volcán sigue en nivel de actividad naranja. - Foto: Cortesía Gobernación de Caldas
+A esto se suma que Wom anunció que trabaja para incrementar en un 26 % su cobertura en 41 municipios con algún grado de afectación por el volcán. Por último, Telefónica-Movistar confirmó que ha repotenciado más de 50 estaciones base en la zona de influencia de este edificio volcánico que se encuentra en nivel de actividad naranja.
+“Los operadores ya se comprometen con obligaciones de hacer para que, Dios quiera, no pase nada, pero si sucede algo, que tengamos las capacidades de responder. Si no ocurre nada con el volcán, estas comunicaciones les sirven a todas las comunidades”, aseveró el ministro TIC.
+Recalcó que la instalación de estas 50 antenas obedece a la estrategia que MinTIC creó de la mano de las empresas de telecomunicaciones móviles, satelitales y de radio, con el fin de garantizar la calidad y cobertura de las comunicaciones en los departamentos de Caldas, Risaralda y Tolima.
+“Además, entregaremos antenas a los organismos de socorro para que se puedan comunicar en caso de una eventual erupción”, puntualizó el ministro, quien anunció la entrega de computadores para que los niños desescolarizados por la alerta naranja continúen con sus clases.
+Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
+Frente a estos anuncios, Viviana Morales, secretaria TIC de Risaralda, indicó: “estamos prestos para realizar el acompañamiento técnico con todo nuestro grupo de trabajo y de ingenieros y así brindar apoyo a las unidades de Gestión del Riesgo y hacer la parte de georreferenciación y la localización en todo lo que ellos requieran, para la instalación de equipos y antenas”.
+Desde el Ministerio TIC destacan que estos anuncios se suman a las licencias para emisoras de interés público de atención de emergencias entregadas en la última semana a los municipios de Herveo, Casabianca, Murillo, Villahermosa y Santa Isabel en el Tolima.
+Anuncian la instalación de 50 antenas de comunicación. - Foto: Cortesía ministerio TIC
+“Queremos agradecerle al ministro porque hace algunos días estuvimos hablando de la necesidad de poder conectar a las personas ubicadas en la zona que puede ser la primera afectada con la emergencia”, expresó el gobernador de Caldas, Luis Carlos Velásquez Cardona.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-gobernacion-de-caldas-adecua-vias-para-evacuar-en-caso-de-que-haya-erupcion/202321/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cual-es-la-actualidad-de-los-volcanes-activos-de-colombia-este-es-el-reporte-del-servicio-geologico-colombiano/202356/
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: Gobernación de Caldas adecúa vías para evacuar en caso de que haya erupción</t>
+          <t>¿Cuál es la actualidad de los volcanes activos de Colombia? Este es el reporte del Servicio Geológico Colombiano</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>La Gobernación de Caldas permanece trabajando de manera continua y mancomunadamente, a través de la Secretaría de Infraestructura, con las autoridades municipales de Villamaría y Neira, además del Ejército Nacional, el Instituto Nacional de Vías (Invías) y la comunidad que vive en inmediaciones del volcán Nevado del Ruiz, con el objetivo de garantizar a los habitantes de estos sectores carreteras de evacuación en caso de una posible erupción.
-“Estamos en período de alistamiento por señales preocupantes del volcán Nevado del Ruiz”: director de Gestión del Riesgo
-“Se han venido realizando mantenimientos periódicos en estos ejes viales. Hoy ya son 20 los kilómetros intervenidos por parte del combo de maquinaria que tiene dispuesto el Gobierno Departamental. Villamaría – El Parnaso – La Zulia, es el corredor vial en el que venimos trabajando”, manifestó César Alberto Gómez Bueno, secretario de Infraestructura de Caldas.
-El nevado del Ruiz tiene jurisdicción en Villamaría (Caldas), Murillo, Vista Hermosa y Casabianca (Tolima). - Foto: Archivo Semana
-Rutas y sectores intervenidos:
-El Destierro - La Batea - La Telaraña (Ruta del Cóndor): 50 metros atendidos.
-El Parnaso - Montenegro - Playa Larga (sector: Parnaso – Montenegro): 3.5 kilómetros atendidos.
-Gallinazo - El Arbolito (ramal: Luis Prieto): 700 metros atendidos.
-Villamaría - Chupaderos – Gallinazo: 200 metros atendidos.
-Villamaría - El Parnaso - La Zulia - Campo Alegre (sectores: Villamaría - La Guayana - Potosí – Campoalegre): 14.62 kilómetros atendidos.
-Gobernación de Caldas atiende las vías de evacuación que rodean al Volcán Nevado del Ruíz
-Los combos de maquinaria en las zonas viales mencionadas, vienen adelantando obras y actividades de mantenimiento de obras hidráulicas y reconformación de cunetas, además de suministro y compactado de afirmado, entre otras.
-Con sismicidad y ceniza ha estado el volcán Nevado del Ruiz - Foto: SGC
-Jorge Orbay Marín, alcalde de Villamaría, destacó al respecto: “Estamos logrando dejar unas vías totalmente transitables, que, si bien el invierno nos ha afectado, hemos tomado unas estrategias”.
-El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?
-A su vez, Alexander Mendieta, habitante del sector de Playa Larga, precisó: “Se notan los cambios que se han visto en la vías, ahora nos demoramos menos bajando a Villamaría, sin lugar a duda se nota el trabajo de las maquinarias”.
-Panorama del Volcán Nevado del Ruiz este lunes 8 de mayo
-Más de un mes y una semana después de activada la alerta naranja por la actividad en el Volcán Nevado del Reuiz, el Servicio Geológico Colombiano informó que la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos persiste. Esta sismicidad ha presentado un leve aumento en el número de sismos y la energía sísmica liberada respecto al fin de semana inmediatamente anterior.
-Algunas de estas señales han sido relacionadas con emisiones pulsátiles de ceniza, confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico. De manera paralela, continúa el registro de sismicidad asociada a fracturamiento de roca al interior del edificio volcánico, la cual mostró un comportamiento similar en el número de sismos y en la energía sísmica en comparación al día anterior (6 de mayo).
-Volcán Nevado del Ruiz ha tenido actividad frecuente e inestable - Foto: Cortesía: Servicio Geológico Colombiano.
-Los sismos se localizaron en el cráter Arenas y de manera dispersa alrededor del mismo, a una distancia máxima de 6 km y a profundidades entre 1 y 5 km. Estos indicadores ratifican que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable y que es necesario continuar con las medidas de prevención.
-Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza, disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán.</t>
+          <t>Desde hace más de 45 días, en Colombia hay reportes a diario de lo que sucede con el volcán Nevado del Ruiz, debido a que el 30 de marzo su nivel de actividad pasó a naranja.
+Pero hay que tener en cuenta que este no es el único volcán activo que hay en el país y que, por lo tanto, hay otros que también son vigilados para determinar si presentan variaciones en su comportamiento.
+Este fue el comportamiento de algunos de los volcanes colombianos en la semana comprendida entre el 9 y el 15 de mayo:
+Volcán Cerro Machín
+Este edificio volcánico continuó el registro de actividad sísmica relacionada con el fracturamiento de roca. De acuerdo con los expertos, esta actividad sísmica aumentó en el número de sismos registrados y en la energía sísmica liberada, con respecto a la semana anterior.
+Se mantiene el nivel amarillo de actividad o tipo III - Foto: Cortesía Servicio Geológico Colombiano
+El SGC confirma que en Cerro Machín se encuentra en nivel amarillo. Se destaca la ocurrencia de un leve incremento en este tipo de sismicidad el 9 de mayo. Los sismos se localizaron principalmente entre el occidente y suroccidente del domo principal y, en menor proporción, al norte y sur del volcán, a profundidades entre 2 y 4 km, aproximadamente.
+Indican que los demás parámetros medidos y utilizados para el diagnóstico de la actividad volcánica no presentaron cambios importantes durante el periodo evaluado.
+Volcán Galeras
+Este volcán se encuentra en nivel de actividad amarillo, lo que indica cambios en el comportamiento. En el lugar la ocurrencia y energía sísmica continuaron presentando niveles bajos, similares a los reportados para las semanas anteriores.
+Afirman que en el lugar se mantiene el predominio de los eventos asociados con fractura de roca al interior del sistema volcánico. La sismicidad de fractura se localizó de manera dispersa alrededor del edificio volcánico, a distancias menores a los 10 km del cono activo, con profundidades máximas de 10 km respecto a la cima (4200 m.s.n.m.).
+Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
+El volcán Galeras ha registrado pequeñas emisiones de gas con baja altura, color blanco, lo que indica predominio de vapor de agua; desde algunos de los campos fumarólicos existentes en el cono activo.
+Complejo Volcánico Cumbal
+El último reporte del SGC sobre este volcán confirma que la actividad sísmica mostró un ligero incremento en la ocurrencia y energía sísmica liberada por los eventos, en comparación con las semanas anteriores, aunque se mantiene en niveles bajos.
+De acuerdo con la vigilancia de la entidad, en este lapso de tiempo predominaron los sismos asociados con fractura de roca en el sistema volcánico, con magnitud máxima de 1.7.
+Este es uno de los volcanes activos en el país vigilado por el SGC - Foto: Cortesía Servicio Geológico Colombiano
+Como características de la actividad confirman que cuando las condiciones climáticas fueron favorables, se posibilitó registrar columnas de gas, de color blanco, pequeña altura y dispersión variable de acuerdo con la velocidad y dirección de los vientos en la zona volcánica.
+“Esas emisiones se observaron principalmente en los campos fumarólicos El Verde, Humeros-Fogones y La Rea (edificio volcánico de Cumbal, al noreste del CVC) y también desde los campos fumarólicos La Banda, Rastrojos y Boca Vieja (edificio volcánico de Mundo Nuevo, al suroeste del CVC).
+En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz
+Volcán Cerro Bravo
+En la última semana se ha tenido también información relacionada con el volcán Cerro Bravo, que está ubicado entre el Alto de Letras (Manizales) y Herveo (Tolima), donde se ha presentado salida de gas y una especie de humo blanco, cuyo origen no ha sido determinado.
+Sobre este particular, el SGC explicó que este es uno de los 25 volcanes activos monitoreados por el Servicio Geológico Colombiano.
+No han determinado la causa de la salida de gases del sector Cerro Bravo - Foto: Cortesía Servicio Geológico Colombiano
+Se encuentra ubicado sobre la cordillera Central, en jurisdicción del municipio de Herveo (Tolima), a 24 km de Manizales y a 22 km del volcán Nevado del Ruiz.
+Se estima que el volcán Cerro Bravo se formó hace aproximadamente 50.000 años, alcanza los 4000 metros sobre el nivel del mar y actualmente está en nivel de actividad Verde, lo que indica que está activo, pero en reposo.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atento-esto-es-lo-que-debe-hacer-antes-durante-y-despues-de-la-erupcion-de-un-volcan/202345/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/sigue-siendo-un-misterio-el-origen-de-los-gases-que-salen-de-cerro-bravo-en-la-via-manizales-bogota/202324/
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Atento: esto es lo que debe hacer antes, durante y después de la erupción de un volcán</t>
+          <t>Los gases en la montaña cerca de Manizales tienen temperaturas de 70 grados y un olor irritante: esto dice el Servicio Geológico sobre el misterioso fenómeno</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Desde el 30 de marzo, el volcán Nevado del Ruiz se encuentra en un nivel de actividad II, que indica erupción probable en término de días o semanas. La situación de alerta llevó a los organismos de emergencia y autoridades de la zona de influencia a empezar la activación de los planes de emergencia.
-El proceso avanza con la realización de censos, la evacuación preventiva de los habitantes de la zona de influencia en los departamentos de Caldas, Quindío, Risaralda y Tolima y el traslado de los menores de edad a zonas seguras donde familiares.
-En todo este proceso, la visita a la zona de influencia incluye la entrega de kits de emergencia y jornadas de educación a la comunidad, Pero ¿sabe qué hacer en caso de una emergencia por erupción del volcán Nevado del Ruiz dependiendo de la zona en la que se encuentre?
-Pobladores que viven cerca del Nevado del Ruiz. - Foto: Colprensa
-Frente a este tema existen varias recomendaciones fundamentales que los organismos de socorro como Bomberos, Cruz Roja y Defensa Civil, entregan a la comunidad y que son de aplicación universal. Lo primero que se debe hacer es tener preparado un kit de emergencia. Este debe contener:
-Botiquín de primeros auxilios con vendas para cortes menores, apósito de gasa, esparadrapo, pinzas y tijeras y pomada antibiótica.
-Alimentos no perecederos como barritas de proteínas, cereales secos, granola, mantequilla de maní, fruta seca, carnes, frutas y verduras enlatadas; leche pasteurizada y jugos de frutas.
-Agua potable.
-Tapabocas.
-Los beneficiarios son habitantes de la zona rural de Villamaría, Caldas - Foto: Cortesía Gobernación de Caldas
-Radio de batería o manivela.
-Linterna con baterías de repuesto.
-Gafas de protección.
-Los medicamentos recetados para los integrantes de la familia y analgésicos, remedios para el estómago y para alergias.
-Abrelatas.
-Artículos sanitarios y de higiene personal.
-Cargadores de teléfonos celulares.
-Dinero en efectivo extra.
-Mantas o sacos de dormir.
-El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?
-Antes de la erupción:
-Identifique si en su comunidad hay amenaza volcánica y trate de no ubicarse dentro de su área de influencia.
-Esté alerta a las instrucciones que den las autoridades y siga las recomendaciones.
-Coloque cinta adhesiva en las ventanas debido a las ondas de choque que pueden causar las explosiones.
-Cubra los depósitos de agua para evitar contaminación por la caída de ceniza.
-Infórmese y tenga identificada la ruta de evacuación que debe seguir.
-Verifique la ruta de evacuación más apropiada y menos expuesta a los efectos de la erupción. Estas deben estar orientadas a tierras más altas.
-Proteja a los animales. Aleje a las mascotas y animales de pastoreo de las zonas próximas a los ríos.
-Manizales empezó con la cadena de llamadas a la población vulnerable - Foto: Magda Jimena Ríos Bedoya
-Durante una erupción volcánica:
-Mantenga la calma.
-Busque refugio bajo techo, si no lo encuentra, procure respirar a través de una tela humedecida de agua o vinagre para evitar el paso de los gases y el polvo volcánico.
-Proteja sus ojos cerrándolos tanto como sea posible. Utilice gafas de protección.
-Si las autoridades deciden establecer la evacuación, tome el equipaje familiar que ya preparó limitando el equipaje a lo que pueda transportar a mano cada persona.
-Volcán Nevado del Ruiz: ¿las cenizas son nocivas para la salud?
-Aunque la erupción le parezca tranquila, no se acerque al volcán.
-Busque protección hacia lugares más altos y no permanezca cerca de ríos o quebradas.
-Fíjese bien en la corriente de agua y al material que transporta antes de cruzar un puente.
-Desconecte la energía eléctrica y cierre las llaves de agua y el gas.
-Se prevé aumento de la nubosidad, probabilidad de lluvias de baja densidad y cielo mayormente nublado - Foto: Cortesía IDEAM
-Utilice el teléfono lo menos que le sea posible y cierre muy bien la vivienda al salir de esta.
-Si es sorprendido por una nube de gases, protéjase con una tela humedecida en agua o vinagre.
-Si tiene conocimiento de un deslizamiento o alguna otra novedad con los afluentes o las laderas que genera alerta, debe informar de inmediato a las autoridades y los vecinos.
-Después de la erupción:
-Permanezca en sitio seguro hasta que las autoridades informen las medidas a seguir.
-Tenga presente que la acumulación de materia volcánica sobre los techos puede generar su colapso.</t>
+          <t>Desde el Servicio Geológico Colombiano indicaron que aún no se ha podido identificar la causa de la salida de gases y vapor en el sector del Alto de Letras, en la vía Manizales-Bogotá.
+De acuerdo con la entidad, especialistas han realizado dos visitas técnicas a la zona y han verificado salida de dióxido de carbono (CO₂) en concentraciones elevadas en varios puntos de la montaña, localizadas en un tramo de menos de 20 metros de largo.
+“También pudimos identificar que la temperatura de los gases alcanza los 70 °C, así como un olor no identificado y vapores irritantes. Si bien estos focos de salida se encuentran en las laderas del volcán Cerro Bravo, sobre depósitos volcánicos, este fenómeno no necesariamente tiene que deberse a actividad de este volcán”, dice el reporte del Servicio Geológico Colombiano.
+La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras. - Foto: Pantallazo video Tik Tok @jery..operador.560
+La entidad, sin embargo, no descarta un posible origen volcánico de estos gases, por lo que advierte que continuarán investigando para determinar qué es lo que ocurre en la zona.
+Destacan que se está preparando una comisión conjunta interinstitucional del Servicio Geológico Colombiano, la Corporación Autónoma Regional de Caldas (Corpocaldas) y la Transportadora de Gas Internacional (TGI), con el fin de obtener más datos, particularmente geoquímicos, sobre este evento.
+Cerro Bravo: descartan fuga de gas de la infraestructura de TGI, entre el Puente La Libertad y Fresno
+Avanzan las investigaciones y las visitas técnicas que permitan determinar qué es lo que está generando la salida de gases o una especie de humo blanco de la ladera de Cerro Bravo que está ubicada entre el Alto de Letras en Manizales y Herveo que pertenece al departamento del Tolima.
+Lo que sucede en este lugar fue grabado en video por el usuario de la red social Tik Tok, @jery..operador.560, y muestra cómo este fenómeno se extiende por varios metros a lo largo de la carretera que permite la comunicación con los municipios del oriente de Caldas y la ciudad de Bogotá.
+De acuerdo con lo que le manifestó a SEMANA este internauta, identificado como Juan Pablo León Tovar, en el sitio se percibe un fuerte olor y además se escuchan sonidos extraños desde hace algunos días.
+“Me pareció muy curioso el fenómeno porque tengo entendido que el volcán Cerro Bravo desde 1720 no hace erupción. Sin embargo, me causa mucha curiosidad porque justamente en esa zona pasa una tubería del gasoducto”, indicó.
+El sitio ha sido visitado por técnicos del Servicio Geológico Colombiano y la Unidad de Gestión del Riesgo de Caldas. A ellos se suman profesionales de la Transportadora de Gas Internacional TGI S. A. EPS, filial del Grupo de Energía de Bogotá, quienes descartaron que esta situación se deba a una fuga de gas.
+“La información que circula en las redes sociales no corresponde a fugas de la infraestructura de TGI. El 12 de mayo, fecha en la cual se evidenció la presencia de gases en proximidades de nuestro gasoducto, TGI activó los protocolos de seguridad y con el rigor técnico y experiencia de sus profesionales constata que, dadas las características del evento relacionadas con la composición química del gas, temperatura, olor y comportamiento del material, la situación no se trata de una fuga del gasoducto de TGI”, indica la empresa de manera oficial.
+El SGC y la Unidad de Gestión del Riesgo de Caldas adelanta la investigación para determinar la causa del fenómeno - Foto: Pantallazo video Tik Tok @jery..operador.560
+Desde TGI aclaran que la extraña situación se presenta de manera puntual sobre la ruta nacional Puente La Libertad- Fresno en la vía Mariquita-Letras, desde el PR 37+150 al PR 37+620, sector Cerro Bravo, jurisdicción del municipio de Herveo, departamento de Tolima.
+Aseguran que la situación le fue notificada al Servicio Geológico Colombiano quienes han ejecutado visitas de campo desde el día sábado 13 de mayo. “Desde TGI hemos dado traslado a las autoridades competentes entre las cuales están el Servicio Geológico Colombiano, Instituto Nacional de Vías (Invías), Oficinas de Gestión del Riesgo y Desastres de los departamentos de Tolima y Caldas y los municipios de Herveo y Manizales, Cuerpo de Bomberos de Herveo y Manizales, para que tomen las medidas correspondientes para el control y mitigación de los efectos producidos por esta emanación de gases”.
+Con relación al día en el que se empezó a observar este fenómeno, algunos trabajadores que se encuentran en la zona han indicado que, desde el jueves, 11 de mayo, sale este gas y que incluso han escuchado sonidos de piedra y una especie de detonaciones, las cuales parecen provenir desde el interior de la montaña.
+Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza
+Al descartar que la especie de humo que se ve en el lugar se trate de gas, este servicio se presta con total normalidad en los sectores industrial, residencial, térmicas y gas natural vehicular (GNV).
+De acuerdo con el autor del video que se acercó al sitio “pude observar que la zona vegetal donde se ven los orificios está algo quemada, el aire es tibio y tiene un fuerte olor como a amoníaco”, señaló.
+A la fecha no se conocen las causas de este particular fenómeno, ni tampoco si guardan alguna relación con el nivel de actividad naranja del volcán Nevado del Ruiz.
+Se analiza si tiene relación con el volcán Nevado del Ruiz. - Foto: Pantallazo video Tik Tok @jery..operador.560
+Cerro Bravo es un estratovolcán compuesto por varias capas de lava endurecida y piroclastos, el cual se encuentra al norte del Nevado del Ruiz, aunque no tiene nieve en la cumbre debido a su altura.
+En la clasificación que lleva a cabo el SGC indica que es un estratovolcán caldérico activo, que cuenta con dos calderas concatenadas de 1,5 y 1 kilómetros de diámetro y muy violento. Se calcula que su última erupción se habría dado aproximadamente en el año 1720.
+En la actualidad, el volcán Cerro Bravo se encuentra en nivel de actividad verde o IV, lo que indica que su comportamiento se mantiene estable y está en reposo.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-se-esta-calentando-mas-hay-riesgos/202347/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cerro-bravo-descartan-fuga-de-gas-de-la-infraestructura-de-tgi-entre-el-puente-la-libertad-y-fresno/202305/
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?</t>
+          <t>Cerro Bravo: descartan fuga de gas de la infraestructura de TGI, entre el Puente La Libertad y Fresno</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El director de geoamenazas del Servicio Geológico Colombiano (SGC), John Makario Londoño, entregó un nuevo reporte sobre el comportamiento del volcán Nevado del Ruiz, que amenaza con hacer erupción -desde hace un mes- en término de días o semanas.
-Se mantienen los temblores asociados al fracturamiento de roca y al movimiento de fluidos al interior de los conductos volcánicos. También se identificó una columna de gases y ceniza que alcanzó una altura de 1.800 metros, medidos desde la cima del Ruiz.
-Atentos: reducen el perímetro de riesgo por posible erupción del volcán Nevado del Ruiz
-Desde las plataformas de monitoreo satelital, se observaron varias anomalías térmicas importantes en el fondo del cráter, cuyos valores son más altos de los reportados en los últimos días y parecidos a los presentados en el año 2015. Así lo explicó el funcionario:
-“Se han detectado unas anomalías que han alcanzado valores mayores a los que se han podido detectar en días anteriores y similares a los que se dieron con la ubicación del domo de lava en el fondo del cráter”, sobrepasando hasta los 500 grados.
-Volcán Nevado del Ruiz Abril 10 del 2023 7:30am a 25.000 pies de altura sobre el nivel del ma - Foto: Suministrada a Semana
-Esto no quiere decir que la erupción es inminente. Al contrario, es uno de los parámetros que advierte sobre la amenaza en el marco de la alerta naranja que se traduce en una posible emergencia por su inestable actividad, tal como sucede desde el 30 de marzo.
-Es decir, las anomalías que tiene el fondo del cráter es un elemento esperado en medio la atención que hay. “Estas anomalías, si bien son mayores de las que han ocurrido en estos días anteriores, no quiere decir que el volcán está en una erupción inminente”, aclaró.
-Posible erupción del volcán Nevado del Ruiz: aquí están las ciudades y municipios que más se afectarían ante una emergencia
-Con todo esto, Londoño agregó que es importante continuar con el constante monitoreo y seguir al pie de la letra las recomendaciones de las autoridades locales, la Unidad Nacional para la Gestión del Riesgo de Desastres y el Servicio Geológico Colombiano.
-Volcán Nevado del Ruiz: ¿las cenizas son nocivas para la salud?
-El volcán Nevado del Ruiz sigue en alerta naranja por la probabilidad de hacer erupción en término de días o semanas. Su inestable actividad se ha manifestado con anomalías en el fondo del cráter, incremento en los sismos y emisión continua de cenizas. El Servicio Geológico Colombiano explicó el alcance y complicaciones del último fenómeno.
-En primer lugar, definió que este tipo de partículas, con un tamaño menor a los dos milímetros, pueden ser rocas, vidrio o cristales de minerales. La combinación puede variar dependiendo del tipo de volcán y erupción. Según las sospechas de los expertos, podría ocurrir muy pronto una de las emergencias más grandes de los últimos diez años.
-Actividad del volcán Nevado del Ruiz este 10 de abril. - Foto: Cortesía: Fuerza Aérea Colombiana.
-La ceniza es el resultado del comportamiento que se da, en este caso, al interior del Nevado del Ruiz: “En un proceso eruptivo, la presión del magma y sus gases pueden fragmentar la roca al interior del volcán en Pedazos. Estos fragmentos salen a gran velocidad a través del cráter” y han caído en varias regiones del Eje Cafetero.
-Su caída tiene puntos favorables para el ambiente. Por ejemplo, su acumulación sobre la tierra puede enriquecer los minerales disponibles en el suelo dado que en su composición abunda el sodio, magnesio y potasio que son elementos fundamentales para las plantas. Por otro lado, se puso en evidencia de que sí hay complicaciones para la salud.
-Vista del volcán Nevado del Ruiz este miércoles 26 de abril. - Foto: Cortesía: Servicio Geológico Colombiano.
-Así lo detalló el Servicio Geológico Colombiano: “Grandes cantidades de ceniza en la atmósfera pueden afectar la calidad del agua y del aire, y generar efectos nocivos en el sistema respiratorio. Esto depende de la cercanía al volcán y la dirección de su dispersión”. Con frecuencia, el fenómeno se siente en el departamento de Caldas y Tolima.
-El Ministerio de Salud detalló que, por la caída de este material, pueden resultar afectadas las vías respiratorias, por lo que se recomiendo el uso del tapabocas. Si se llegan a presentar síntomas oculares como irritación, molestias y lagrimeo, la entidad sugirió realizar un lavado cuidadoso con agua limpia para frenar las complicaciones por la ceniza.</t>
+          <t>Avanzan las investigaciones y las visitas técnicas que permitan determinar qué es lo que está generando la salida de gases o una especie de humo blanco de la ladera de Cerro Bravo que está ubicada entre el Alto de Letras en Manizales y Herveo que pertenece al departamento del Tolima.
+Lo que sucede en este lugar fue grabado en video por el usuario de la red social Tik Tok, @jery..operador.560, y muestra como este fenómeno se extiende por varios metros a lo largo de la carretera que permite la comunicación con los municipios del oriente de Caldas y la ciudad de Bogotá.
+Se analiza si tiene relación con el volcán Nevado del Ruíz - Foto: Pantallazo video Tik Tok @jery..operador.560
+De acuerdo con lo que le manifestó a SEMANA este internauta, identificado como Juan Pablo León Tovar, en el sitio se percibe un fuerte olor y además se escuchan sonidos extraños desde hace algunos días.
+“Me pareció muy curioso el fenómeno porque tengo entendido que el volcán Cerro bravo desde 1720 no hace erupción. Sin embargo, me causa mucha curiosidad porque justamente en esa zona pasa una tubería del gasoducto”, manifestó.
+Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
+El sitio ha sido visitado por técnicos del Servicio Geológico Colombiano y la Unidad de Gestión del Riesgo de Caldas. A ellos se suman profesionales de la Transportadora de Gas Internacional TGI S.A. EPS, filial del Grupo de Energía de Bogotá, quienes descartaron que esta situación se deba a una fuga de gas.
+“La información que circula en las redes sociales no corresponde a fugas de la infraestructura de TGI. El 12 de mayo, fecha en la cual se evidenció la presencia de gases en proximidades de nuestro gasoducto, TGI activó los protocolos de seguridad y con el rigor técnico y experiencia de sus profesionales constata que, dadas las características del evento relacionadas con la composición química del gas, temperatura, olor y comportamiento del material, la situación no se trata de una fuga del gasoducto de TGI”, indica la empresa de manera oficial.
+El SGC y la Unidad de Gestión del Riesgo de Caldas adelanta la investigación para determinar la causa del fenómeno - Foto: Pantallazo video Tik Tok @jery..operador.560
+Desde TGI aclaran que la extraña situación se presenta de manera puntual sobre la ruta nacional Puente La Libertad – Fresno en la vía Mariquita – Letras, desde el PR 37+150 al PR 37+620, sector Cerro Bravo, jurisdicción del municipio de Herveo, departamento de Tolima.
+Aseguran que la situación le fue notificada al Servicio Geológico Colombiano quienes han ejecutado visitas de campo desde el día sábado 13 de mayo. “Desde TGI hemos dado traslado a las autoridades competentes entre las cuales están el Servicio Geológico Colombiano, Instituto Nacional de Vías (INVIAS), Oficinas de Gestión del Riesgo y Desastres de los departamentos de Tolima y Caldas y los municipios de Herveo y Manizales, Cuerpo de Bomberos de Herveo y Manizales, para que tomen las medidas correspondientes para el control y mitigación de los efectos producidos por esta emanación de gases”.
+Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza
+Con relación al día en el que se empezó a observar este fenómeno, algunos trabajadores que se encuentran en la zona han indicado que, desde el jueves, 11 de mayo, sale este gas y que incluso han escuchado sonidos de piedra y una especie de detonaciones, las cuales parecen provenir desde el interior de la montaña.
+Al descartar que la especie de humo que se ve en el lugar se trate de gas, la prestación de este servicio se presta con total normalidad en los sectores industrial, residencial, térmicas y Gas Natural Vehicular GNV.
+De acuerdo con el autor del video que se acercó al sitio “pude observar que la zona vegetal dónde se ven los orificios está algo quemada, el aire es tibio y tiene un fuerte olor como a amoniaco”, señaló.
+Al descartar la fuga de gas por parte de TGI, a la fecha no se conocen las causas de este particular fenómeno, ni tampoco si guardan alguna relación con el nivel de actividad naranja del volcán Nevado del Ruiz.
+El jefe de la Unidad de Gestión del Riesgo de Caldas, Félix Ricardo Giraldo Delgado, pidió a la comunidad guardar la calma y hacer caso únicamente de la información que se entrega desde las entidades oficiales como la Gobernación de Caldas o el Servicio Geológico Colombiano, con el objetivo de evitar la aparición y propagación de mensajes con contenido falso en las redes sociales.
+La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras - Foto: Pantallazo video Tik Tok @jery..operador.560
+Igualmente, se pronunció a través de un breve comunicado el Servicio Geológico Colombiano, (SGC), manifestando lo siguiente:
+“Con respecto a los videos que circulan en redes sobre una emanación de gas en una de las laderas del sector suroriental del volcán Cerro Bravo, sobre la vía Manizales-Bogotá (cerca del sector conocido como La Virgen), desde el Servicio Geológico Colombiano les contamos que, de momento, estamos haciendo las respectivas inspecciones en campo, así como el análisis y evaluación de la información. En cuanto tengamos novedades, les estaremos informando”.
+📣Hemos recibido muchas preguntas hoy sobre los videos que están circulando en redes y que muestran una emanación de gas en una de las laderas del sector suroriental del volcán Cerro Bravo🌋, sobre la vía Manizales-Bogotá (cerca del sector conocido como La Virgen).
+Sigue👇
+— Servicio Geológico Colombiano (@sgcol) May 16, 2023
+Cerro Bravo es un estratovolcán compuesto por varias capas de lava endurecida y piroclastos, el cual se encuentra al norte del Nevado del Ruiz, aunque no tiene nieve en la cumbre debido a su altura.
+En la clasificación que lleva a cabo el SGC indica que es un estratovolcán caldérico activo, que cuenta con dos calderas concatenadas de 1.5 y 1.0 Kilómetros de diámetro y muy violento. Se calcula que su última erupción se habría dado aproximadamente en el año 1720.
+En la actualidad el volcán Cerro Bravo se encuentra en nivel de actividad verde o IV, lo que indica que su comportamiento se mantiene estable y está en reposo.
+En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-las-cenizas-son-nocivas-para-la-salud/202325/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-entregan-alimento-para-los-animales-ubicados-en-la-zona-de-influencia/202353/
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: ¿las cenizas son nocivas para la salud?</t>
+          <t>Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz sigue en alerta naranja por la probabilidad de hacer erupción en término de días o semanas. Su inestable actividad se ha manifestado con anomalías en el fondo del cráter, incremento en los sismos y emisión continua de cenizas. El Servicio Geológico Colombiano explicó el alcance y complicaciones del último fenómeno.
-En primer lugar, definió que este tipo de partículas, con un tamaño menor a los dos milímetros, pueden ser rocas, vidrio o cristales de minerales. La combinación puede variar dependiendo del tipo de volcán y erupción. Según las sospechas de los expertos, podría ocurrir muy pronto una de las emergencias más grandes de los últimos diez años.
-Posible erupción del volcán Nevado del Ruiz: aquí están las ciudades y municipios que más se afectarían ante una emergencia
-La ceniza es el resultado del comportamiento que se da, en este caso, al interior del Nevado del Ruiz: “En un proceso eruptivo, la presión del magma y sus gases pueden fragmentar la roca al interior del volcán en Pedazos. Estos fragmentos salen a gran velocidad a través del cráter” y han caído en varias regiones del Eje Cafetero.
-Su caída tiene puntos favorables para el ambiente. Por ejemplo, su acumulación sobre la tierra puede enriquecer los minerales disponibles en el suelo dado que en su composición abunda el sodio, magnesio y potasio que son elementos fundamentales para las plantas. Por otro lado, se puso en evidencia de que sí hay complicaciones para la salud.
-Volcán Nevado del Ruiz Abril 10 del 2023 Tomadas a las 7:30am a 25.000 pies de altura sobre el nivel del ma - Foto: Suministrada a Semana
-Así lo detalló el Servicio Geológico Colombiano: “Grandes cantidades de ceniza en la atmósfera pueden afectar la calidad del agua y del aire, y generar efectos nocivos en el sistema respiratorio. Esto depende de la cercanía al volcán y la dirección de su dispersión”. Con frecuencia, el fenómeno se siente en el departamento de Caldas y Tolima.
-El Ministerio de Salud detalló que, por la caída de este material, pueden resultar afectadas las vías respiratorias, por lo que se recomiendo el uso del tapabocas. Si se llegan a presentar síntomas oculares como irritación, molestias y lagrimeo, la entidad sugirió realizar un lavado cuidadoso con agua limpia para frenar las complicaciones por la ceniza.
-Atentos: reducen el perímetro de riesgo por posible erupción del volcán Nevado del Ruiz
-Sobre la mesa hay otras posibles complicaciones. Si hay irritaciones en la piel, se pide no utilizar medicamentos y, en cambio, regar la zona afectada con abundante agua. De igual manera, las enfermedades pulmonares preexistentes podrían agudizarse, por lo que se pidió evitar entrar en contacto con el material particulado disperso en el aire.
-¿Cómo se ha comportado el volcán?
-La actividad sísmica asociada a fracturamiento de roca al interior del volcán Nevado del Ruiz aumentó en cuanto a número de sismos, en comparación con el 5, 6 y lo que va corrido del 7 de mayo, según el más reciente informe emitido desde el Servicio Geológico Colombiano.
-Esta sismicidad estuvo localizada principalmente en el cráter Arenas y en los sectores nororiental, oriental y suroriental del volcán, a una distancia máxima de 2 km a partir de este, y con profundidades entre 2 y 6 km. Algunos de estos sismos se relacionaron con la actividad del domo (protuberancia o montículo) de lava ubicado en el fondo del cráter.
-Volcán Nevado del Ruiz Abril 10 del 2023 Tomadas a las 7:30am a 25.000 pies de altura sobre el nivel del ma - Foto: Suministrada a Semana
-“La actividad del volcán Nevado del Ruiz el día de ayer 6 de mayo y lo que va del día de hoy 7 continúa en niveles similares a los días anteriores. Es decir, la sismicidad en general de fractura sigue en niveles bajos, algunos sismos se localizan alrededor del cráter en el cráter mismo, pero digamos de baja energía. Lo que persiste es la actividad relacionada con los fluidos, la actividad de tanto de salida de gases como de ceniza”, dijo John Makario Londoño, director técnico de geoamenazas del Servicio Geológico Colombiano.
-La máxima magnitud registrada fue de 1,6, como se reportó el día 6 de mayo, correspondiente a un sismo ocurrido a las 03:09 a. m., a 2 km al suroriente del volcán, y a 3 km de profundidad, aproximadamente.
-Volcán de Fuego en Guatemala: impresionantes videos muestran cómo fue la erupción
-En cuanto a la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, hoy presentó un comportamiento similar en número de sismos y en energía sísmica liberada con respecto al día anterior (5 de mayo).
-“También continúan las anomalías térmicas en el fondo del cráter, como han podido ver esta sismicidad, y este comportamiento en general ha permanecido por varias semanas de una manera muy similar. Esto no quiere decir que el volcán ya retornó a sus niveles normales, por el contrario, esta sismicidad sigue siendo muy alta”, anotó Londoño.
-Volcán Nevado del Ruiz Abril 10 del 2023 Tomadas a las 7:30am a 25.000 pies de altura sobre el nivel del ma - Foto: Suministrada a Semana</t>
+          <t>Los 45 días que lleva la declaratoria del nivel de actividad naranja del volcán Nevado del Ruiz, tiene a las autoridades de los municipios ubicados en la zona de influencia a mantener la preparación ante una eventual erupción, la cual puede darse en el término de días o semanas.
+El proceso ha incluido la evacuación de las familias, la actualización de los censos y la entrega de kits de emergencia. A esto se suma la entrega de más de 45 pacas de heno por parte de la Brigada de Bienestar Animal de la Policía de Carabineros.
+Los uniformados verifican las condiciones de salud de los animales y entregan recomendaciones - Foto: Cortesía Policía Caldas
+Uno de los procesos de entrega se realizó en la ribera del río Chinchiná donde las familias tienen más de 105 animales entre vacas, caballos, perros, gatos y gallinas; los cuales pueden quedar en riesgo ante fenómenos como la caída de ceniza.
+Los uniformados del grupo de carabineros y guías caninos del departamento de Caldas, entregaron el alimento para equinos y bovinos. Adicional a esto adelantaron un proceso de verificación de los parámetros de salud de los animales como salud, nutrición, espacios seguros y comportamiento.
+Video: los misteriosos gases que emanan de la montaña en una vía hacia Manizales cerca del Nevado del Ruiz. Esto es lo que se sabe
+Entre las recomendaciones que deben tener en cuenta las personas que viven en la zona de influencia del volcán Nevado del Ruiz, para el cuidado de sus animales, se encuentran:
+Si estos entran en contacto directo con la ceniza volcánica, es recomendable limpiar sus ojos, boca y nariz con abundante agua. Además, es importante cambiar constantemente el agua que beben y la comida que consumen.
+En caso de que los animales sufran quemaduras por la ceniza del volcán, se puede humedecer paños y aplicarlos sobre las zonas afectadas. En caso de que las lesiones sean graves, es recomendable llevar a los animales al veterinario.
+Se debe evitar sacar a las mascotas a pasear cuando haya presencia de ceniza volcánica en el ambiente.
+Resguardar a los animales en un lugar seguro, preferiblemente dentro de la casa.
+Lo que más preocupa en la zona es la atención de los bovinos - Foto: Cortesía Alcaldía de Manizales
+Frente a este tema, desde la Alcaldía de Manizales le recordaron a la comunidad que para proteger a las mascotas es necesario lavar con frecuencia sus recipientes de agua y alimentos, los cuales no se deben dejar a la intemperie.
+A esto se suma la necesidad de lavarles los pulpejos sólo con agua sin utilizar productos químicos ni jabón, cepillarles en seco el pelaje después de cada salida, disminuir o evitar que olfateen y laman el piso y limpiar suavemente con toallitas húmedas sus ojos, nariz y oídos.
+Ante la caída de ceniza del volcán Nevado del Ruiz, se debe tener en cuenta que esta puede afectar a las mascotas con:
+Irritación de ojos, conjuntivas y fosas nasales.
+Tos o estornudos.
+Secreciones oculares y/o nasales.
+Irritación de la piel y almohadillas plantares.
+Afecciones digestivas por consumo accidental de ceniza en alimento o agua.
+En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz
+Recuperan animales en municipios de Caldas
+En el municipio de Palestina, gracias a la colaboración de la ciudadanía fue recuperada por las autoridades una guacamaya azul y amarilla de nombre científico Ara ararauna y un ejemplar infantil de perezoso de tres dedos de nombre científico Choloepus hoffmanni.
+Adicionalmente en el municipio de Neira, las autoridades lograron la incautación de tres especies de aves, entre ellos un loro frente azul, un loro frente amarillo y un sinsonte.
+Los animales fueron entregados de manera voluntarias por las personas que los tenían - Foto: Cortesía Policía Caldas
+Indicaron que las personas que tenían en su poder estos animales permitieron de forma voluntaria el ingreso de los uniformados a sus lugares de residencia, con el objetivo de realizar el procedimiento de incautación.
+El mamífero y las aves fueron dejadas a disposición del Centro de Atención, Valoración y Rehabilitación de Fauna Silvestre de la Corporación Autónoma Regional de Caldas, para valoración médico veterinaria y posterior restitución de su vida silvestre.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atentos-reducen-el-perimetro-de-riesgo-por-posible-erupcion-del-volcan-nevado-del-ruiz/202330/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-que-aumento-la-sismicidad-es-peligroso/202347/
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Atentos: reducen el perímetro de riesgo por posible erupción del volcán Nevado del Ruiz</t>
+          <t>Volcán Nevado del Ruiz: reportan que aumentó la sismicidad, ¿es peligroso?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>En Manizales, se desarrolló un nuevo Puesto de Mando Unificado para analizar todo lo relacionado con el volcán Nevado del Ruiz, bajo el liderazgo del nuevo director de la Unidad Nacional de Gestión del Riesgo de Desastres, Olmedo López.
-Durante la reunión, se tomaron varias decisiones con relaciones a la manera como se va a continuar atendiendo la emergencia que genera el nivel de actividad naranja en la que se encuentra y que obligó a declarar la calamidad pública en los departamentos de Tolima, Caldas y Risaralda, para atender de manera oportuna todo lo que implica la alerta.
-En el área de interés del volcán se ha observado cielo mayormente nublado y predominio de tiempo seco - Foto: Cortesía IDEAM
-Una de las decisiones tiene que ver con la reducción del perímetro de riesgo por posible erupción, el cual pasa de 15 a 10 kilómetros, lo que indica que menos personas quedan incluidas en la zona de influencia.
-La medida se toma para buscar tener una reactivación comercial y turística en los municipios que están ubicados a esa distancia y que se han visto muy afectados por la disminución de turistas y visitantes; situación que afecta la economía de muchas familias.
-#AEstaHora | En #Manizales, #Caldas, inicia Puesto de Mando Unificado (PMU) de seguimiento a preparativos de respuesta frente a nivel de actividad 🟠 de #VolcánNevadoDelRuiz, presidido por Dir. @UNGRD, @olmedolopezm y @GoberCaldas, @LuisCarlosGober. #VolcánEnAlerta 🗻
-🧵⬇️ pic.twitter.com/0Jj1sGemzU
-— UNGRD🇨🇴 (@UNGRD) May 6, 2023
-“Esta solicitud no cambia la invitación de desalojo para las familias de la zona. Actualmente, 20 familias han evacuado y 21 menores están donde familiares”, afirmó Luis Calos Velásquez Cardona, gobernador de Caldas.
-Durante el PMU, el director de la UNGRD escuchó el informe de la situación actual del volcán presentada por el Servicio Geológico Colombiano y el balance del proceso de evacuación de 1.483 familias que están en la zona de influencia.
-Estudiantes de cinco colegios retomarán clases presenciales luego de permanecer en casa por la alerta naranja en el Volcán Nevado de Ruiz
-“Aquí estamos muy atentos para que no se repita la tragedia de 1985 en Armero. Hoy tenemos una gran fortaleza que es la UNGRD, estamos unidos con los municipios, departamentos y entidades del Sistema para proteger vidas”, afirmó en Manizales Olmedo López.
-El funcionario destacó el trabajo que se adelanta en las vías terciarias de la zona de influencia del volcán Nevado del Ruiz para agilizar los procesos de evacuación de las comunidades en caso de una emergencia.
-El proceso busca agilizar la evacuación de las familias que viven en la zona de influencia del volcán - Foto: Cortesía Gobernación de Caldas
-El trabajo se debe adelantar sobre 120 kilómetros de los cuales han sido intervenidos 90. Sobre este aspecto César Alberto Gómez Bueno, secretario de Infraestructura del departamento, indicó que en conjunto con las diferentes administraciones municipales de Villamaría y Neira se avanza en el proceso que permita tener las vías en buen estado.
-La intervención actual incluye la vía Villamaría-El Parnaso-La Zulia, donde se han ejecutado 15 kilómetros de mantenimiento comprendidos entre la vereda El Pindo y el sector conocido como La Telaraña.
-El volcán Nevado del Ruiz sigue inestable: así registran las autoridades su actividad
-“Hoy en día estamos tratando de llegar a los 110 kilómetros de vías de influencia y a las principales rutas de evacuación para poder que las comunidades puedan salir fácilmente en el caso de presentarse una novedad con el volcán”, dijo Gómez Bueno.
-Destacó que entre los trabajos que se realizan están cuneteo, perfilado de la vía y aplicación de afirmado lo cual se adelanta con la ayuda de maquinaria como vibrocompactador, motoniveladora y tres volquetas.
-Los beneficiarios son habitantes de la zona rural de Villamaría, Caldas - Foto: Cortesía Gobernación de Caldas
-“Vamos a intensificar los esfuerzos. Vamos a revisar y a darle celeridad a la petición que hace la gobernación de Caldas de dos kits de maquinaria amarilla nuevos para la región para que avancemos y pronto le podamos anunciar al país que en el departamento y en el entorno del Nevado del Ruiz, tenemos recuperado el 100% de la región campesina y rural para que puedan llegar a evacuar rápidamente”, anunció el director de la UNGRD.
-Otra decisión tomada en el Puesto de Mando Unificado es la relacionada con los animales de compañía, los cuales será incluidos en los censos de población por lo que los kits humanitarios contarán con alimentación para ellos.
-“Anunciamos desde Manizales que venimos avanzando fuertemente con Indumil en la importación de materias primas e intercambio de conocimientos para que antes que finalice este año nos entregue Indumil los puentes militares. Mientras eso sucede vamos a hacer una importación de kits y de puentes de este tipo para tener un inventario suficiente para estar preparados en caso tal de que sean necesarios para el entorno del volcán”, dijo.
-El director de la @UNGRD, @olmedolopezm, y nuestro gobernador @LuisCarlosGober, lideran a esta hora PMU departamental por la actividad naranja del volcán Nevado del Ruiz. Al final informará los compromisos con #Caldas para este alistamiento preventivo. pic.twitter.com/THF2wOEeV2
-— Gobernación de Caldas (@GoberCaldas) May 6, 2023
-El funcionario se comprometió a realizar las consultas necesarias para adelantar el proceso de compra de predios en la zona de mayor influencia del Nevado del Ruiz para convertirla en reserva natural.</t>
+          <t>El Servicio Geológico Colombiano continúa con el monitoreo constante de la actividad del volcán Nevado del Ruiz, el cual reporta nuevas eventualidades con relación a lo registrado en días anteriores.
+Una de las novedades se presenta con el aumento de la actividad sísmica asociado a fracturamiento de roca al interior del edificio volcánico los días 14 y 15 de mayo. De acuerdo con la entidad, “presentó un aumento importante en cuanto a número de sismos y energía sísmica liberada en comparación al día 13 de mayo y a la semana anterior”.
+El Servicio Geológico Colombiano analiza los parámetros del volcán - Foto: Cortesía Servicio Geológico Colombiano
+Adicionalmente, de acuerdo con el reporte entregado por los expertos basados en los registros de las cámaras web y los demás equipos instalados en la zona del volcán, esta sismicidad estuvo localizada principalmente al suroccidente del cráter Arenas, a una distancia entre 4 y 5 km de este, con profundidades que oscilaron entre 2 y 4 km.
+Los sismos fueron sentidos en el sector Lagunilla y el municipio de Murillo, zonas que pertenecen al departamento del Tolima. “La magnitud máxima fue de 2,8 Magnitud Local, correspondiente a dos sismos registrados el día 14 de mayo a las 12:59 p. m. y 1:00 p. m.”, dice el reporte del Servicio Geológico.
+Video: los misteriosos gases que emanan de la montaña en una vía hacia Manizales cerca del Nevado del Ruiz. Esto es lo que se sabe
+De otro lado, la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos presentó un aumento, especialmente en la energía sísmica liberada.
+La entidad destaca que algunas de las señales sísmicas estuvieron asociadas a emisiones pulsátiles de ceniza, confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico. “Se destaca la emisión de ceniza registrada en la mañana de este lunes, 15 mayo, a las 5:20 a. m., que generó la caída de ceniza en los municipios de Manizales y Villamaría, que pertenecen al departamento de Caldas”.
+Desde el SGC reiteran que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable y que es posible que los niveles de actividad sísmica, así como los de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros.
+Foto del Volcán Nevado del Ruiz y su actividad sísmica - Foto: Servicio Geológico Colombiano
+Los expertos confirman que en Manizales se presentaron reporte de olor a azufre y destacan que es posible que esto se deba” a la dispersión de una alta concentración de dióxido de azufre (SO2) desde el volcán que, junto con algunos componentes de la ceniza, pudieron reaccionar con la humedad en el ambiente y percibirse olor y sensación irritante similar a compuestos azufrados”.
+Para tranquilidad de la comunidad, el SGC le aclara que la ocurrencia de este tipo de fenómenos no indica ningún cambio relevante en la actividad del volcán, “simplemente se da de manera ocasional cuando este tipo de factores confluyen (concentración de SO2 y alta humedad), y está contemplada dentro de los parámetros de un volcán en nivel de actividad naranja”.
+Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza
+Félix Ricardo Giraldo Delgado, jefe de la Unidad de Gestión del Riesgo de Caldas, explicó frente a esta situación que “con las fuertes lluvias que han caído en la ciudad se presentó una dispersión en toda el área urbana de estas dos localidades y esto se vio reflejado en vehículos y en calles que notaron obviamente este fenómeno de caída de ceniza volcánica”.
+A esto se suma un fuerte olor a azufre desde tempranas horas de la mañana en casi toda la ciudad de Manizales y esto obedece a la emisión de gases, vapores y cenizas recurrentes desde el interior del volcán Nevado del Ruiz.
+Buscan potenciar las sirenas que ya se tienen en sectores como Viejo Río Claro y El Destierro de Villamaría - Foto: Cortesía Gobernación de Caldas
+Piden a la comunidad conservar la calma, seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y de las autoridades locales, y estar atenta a la información proporcionada por el Servicio Geológico Colombiano sobre la evolución del estado del volcán.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-inestable-asi-registran-las-autoridades-su-actividad/202344/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/manizales-y-el-extrano-olor-a-azufre-que-proviene-del-volcan-nevado-del-ruiz-en-la-ciudad-se-ha-tenido-una-fuerte-caida-de-ceniza/202347/
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz sigue inestable: así registran las autoridades su actividad</t>
+          <t>Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano avanza en el monitoreo 24/7 sobre el volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja o II, lo que indica erupción probable en término de días o semanas, según la declaratoria entregada desde el 30 de marzo.</t>
+          <t>Los habitantes Manizales y quienes se encuentran en ella por algún motivo, han tenido que afrontar en este lunes, 15 de mayo, diferentes fenómenos naturales que les recuerda que el volcán Nevado del Ruiz está en actividad.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estudiantes-de-cinco-colegios-retomaran-clases-presenciales-luego-de-permanecer-en-casa-por-la-alerta-naranja-en-el-volcan-nevado-de-ruiz/202336/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-normalidad-en-manizales-luego-de-sismo-de-magnitud-50/202305/
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Estudiantes de cinco colegios retomarán clases presenciales luego de permanecer en casa por la alerta naranja en el Volcán Nevado de Ruiz</t>
+          <t>Volcán Nevado del Ruiz: reportan normalidad en Manizales luego de sismo de magnitud 5.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tras la declaratoria de alerta naranja por el inminente riesgo de erupción del volcán Nevado del Ruiz, al menos 30 instituciones educativas, ubicadas en el área de influencia, decidieron adoptar la modalidad de clases virtuales como medida preventiva.</t>
+          <t>En la madrugada de este domingo, 14 de mayo, se registró un sismo en Colombia se sintió en diferentes partes del país. En principio, el Servicio Geológico Colombiano (SGC) dijo que fue de magnitud 4,3 y luego precisó que fue de 5,0, con epicentro en Acacias, Meta, y una profundidad menor a 30 kilómetros.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/no-paran-los-temblores-en-el-volcan-nevado-del-ruiz-este-es-el-nuevo-reporte-del-servicio-geologico-colombiano/202348/
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-podria-haber-caida-de-ceniza-en-tres-municipios-del-tolima/202358/
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No paran los temblores en el volcán Nevado del Ruiz; este es el nuevo reporte del Servicio Geológico Colombiano</t>
+          <t>Volcán Nevado del Ruiz: podría haber caída de ceniza en tres municipios del Tolima</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+          <t>Este 13 de mayo el Servicio Geológico Colombiano (SGC) publicó un nuevo boletín extraordinario en el cual da detalles sobre la situación del volcán Nevado del Ruiz. En el documento, la entidad advierte que se siguió presentando actividad sísmica debido al contante movimiento de fluidos dentro de los conductos volcánicos.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atencion-se-registra-temblor-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202314/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-podria-hacer-erupcion-en-dias-o-semanas/202342/
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Se registra temblor en la zona de influencia del volcán Nevado del Ruiz</t>
+          <t>Volcán Nevado del Ruiz: ¿podría hacer erupción en días o semanas?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano confirmó la ocurrencia de un sismo con epicentro en uno de los municipios ubicado en la zona de influencia del volcán Nevado del Ruiz.</t>
+          <t>El 30 de marzo el Servicio Geológico Colombiano (SGC) se vio en la obligación de encender las alarmas por el inestable comportamiento del volcán Nevado del Ruiz dado que podría protagonizar la erupción más grande de la última década. Desde entonces, las condiciones no han variado y permanece el riesgo de la emergencia.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/puede-desatarse-una-alerta-roja-en-el-volcan-nevado-del-ruiz-en-los-proximos-dias/202352/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/en-caldas-buscan-mejorar-el-sistema-de-alertas-tempranas-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202356/
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>¿Puede desatarse una alerta roja en el Volcán Nevado del Ruiz en los próximos días?</t>
+          <t>En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Son muchas las inquietudes que surgen entre la comunidad con relación a la actividad del volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja desde el día 30 de marzo de 2023, por lo que tiene un monitoreo permanente por parte del Servicio Geológico Colombiano.</t>
+          <t>Los departamentos y municipios que están en la zona de influencia del volcán Nevado del Ruiz avanzan en el proceso de preparación ante una eventual emergencia, teniendo en cuenta el nivel de actividad naranja en que se encuentra.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/el-volcan-nevado-del-ruiz-tiene-un-leve-incremento-en-la-energia-sismica-nuevo-reporte-del-servicio-geologico-colombiano/202305/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-que-indican-del-estado-del-volcan/202328/
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El Volcán Nevado del Ruiz “tiene un leve incremento en la energía sísmica”: nuevo reporte del Servicio Geológico Colombiano</t>
+          <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y qué indican del estado del volcán?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+          <t>La actividad en la que se mantiene el volcán Nevado del Ruiz arroja unas características que muestran su inestabilidad con indicadores como predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, aumento en la energía sísmica liberada, anomalías térmicas importantes en el fondo del cráter y variaciones de la desgasificación de dióxido de azufre y salida de vapor de agua desde el cráter a la atmósfera.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-sigue-siendo-muy-inestable-en-los-primeros-dias-de-mayo/202354/
+          <t xml:space="preserve">https://www.semana.com/nacion/cucuta/articulo/municipios-en-riesgo-por-el-volcan-nevado-del-ruiz-ya-cuentan-con-emisoras-de-emergencia/202318/
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz sigue siendo muy inestable en los primeros días de mayo</t>
+          <t>Municipios en riesgo por el volcán Nevado del Ruiz ya cuentan con emisoras de emergencia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+          <t>Los habitantes de las zonas aledañas al volcán Nevado del Ruiz ya cuentan con cuatro nuevas emisoras de Interés Público de Atención y Prevención de Desastres que fueron autorizadas por el Ministerio de Tecnologías de la Información y Comunicaciones de Colombia (TIC).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-detectan-una-luz-roja-desde-el-espacio-de-que-se-trata/202326/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-que-se-mantiene-la-alerta-naranja-en-el-nevado-del-ruiz/202307/
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: detectan una luz roja desde el espacio, ¿de qué se trata?</t>
+          <t>¿Por qué se mantiene la alerta naranja en el Nevado del Ruiz?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Imágenes registradas por satélites pusieron en evidencia un punto rojo emitido desde el volcán Nevado del Ruiz, cuya actividad se mantiene en alerta naranja por el riesgo de hacer la erupción más grande de los últimos diez años, en términos de días o semanas.</t>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz, debido a que su nivel de actividad continúa en naranja desde que se reportó esta situación a principios de abril.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/asi-se-ve-el-volcan-nevado-del-ruiz-desde-el-espacio/202349/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-recomiendan-continuar-con-las-medidas-de-prevencion-ante-el-aumento-de-sismos/202311/
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Así se ve el volcán Nevado del Ruiz desde el espacio</t>
+          <t>Volcán Nevado del Ruiz: recomiendan continuar con las medidas de prevención ante el aumento de sismos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) puso a delirar a más de uno con una imagen del volcán Nevado del Ruiz desde el espacio.</t>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/asi-esta-el-nevado-del-ruiz-las-imagenes-del-volcan-que-ya-cumple-un-mes-en-alerta-naranja/202340/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-por-que-no-hay-que-relajarse-y-que-tiene-que-pasar-para-que-baje-el-nivel-de-actividad/202354/
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Así está el Nevado del Ruiz: las imágenes del volcán que ya cumple un mes en alerta naranja</t>
+          <t>Volcán Nevado del Ruiz: ¿por qué no hay que relajarse y qué tiene que pasar para que baje el nivel de actividad?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Un mes después del incremento del nivel de actividad del volcán Nevado del Ruiz de amarilla a naranja, se mantiene el monitoreo permanente al edificio volcánico por parte de los técnicos y profesionales del Servicio Geológico Colombiano (SGC).</t>
+          <t>Aunque ha pasado más de un mes desde que se elevó a naranja el nivel de actividad del volcán Nevado del Ruiz, la probabilidad de que “haga una erupción mayor a las que ha hecho en los últimos diez años” sigue siendo latente, de acuerdo con el Servicio Geológico Colombiano (SGC).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-amenazando-con-erupcion-nuevo-informe-del-servicio-geologico-colombiano/202313/
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-gobernacion-de-caldas-adecua-vias-para-evacuar-en-caso-de-que-haya-erupcion/202321/
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz sigue amenazando con erupción: nuevo informe del Servicio Geológico Colombiano</t>
+          <t>Volcán Nevado del Ruiz: Gobernación de Caldas adecúa vías para evacuar en caso de que haya erupción</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano emitió un nuevo informe sobre el comportamiento que tuvo este lunes, 1 de mayo, el volcán Nevado del Ruiz, que amenaza con hacer la erupción más grande de la última década, por lo que se mantiene activa la alerta naranja.</t>
+          <t>La Gobernación de Caldas permanece trabajando de manera continua y mancomunadamente, a través de la Secretaría de Infraestructura, con las autoridades municipales de Villamaría y Neira, además del Ejército Nacional, el Instituto Nacional de Vías (Invías) y la comunidad que vive en inmediaciones del volcán Nevado del Ruiz, con el objetivo de garantizar a los habitantes de estos sectores carreteras de evacuación en caso de una posible erupción.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-estos-son-los-municipios-que-deberian-evacuar-inmediatamente-por-posible-erupcion/202353/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atento-esto-es-lo-que-debe-hacer-antes-durante-y-despues-de-la-erupcion-de-un-volcan/202345/
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: estos son los municipios que deberían evacuar inmediatamente por posible erupción</t>
+          <t>Atento: esto es lo que debe hacer antes, durante y después de la erupción de un volcán</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A un mes de la declaratoria de alerta naranja, la actividad del volcán Nevado del Ruiz continúa siendo muy inestable, así mismo persisten las anomalías térmicas en el fondo del cráter, las cuales se pueden observar desde plataformas de monitoreo satelital; así como la desgasificación de dióxido de azufre a la atmósfera y la salida de vapor de agua en el volcán.</t>
+          <t>Desde el 30 de marzo, el volcán Nevado del Ruiz se encuentra en un nivel de actividad II, que indica erupción probable en término de días o semanas. La situación de alerta llevó a los organismos de emergencia y autoridades de la zona de influencia a empezar la activación de los planes de emergencia.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-un-mes-de-en-alerta-naranja-que-ha-pasado/202323/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-se-esta-calentando-mas-hay-riesgos/202347/
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: un mes de en alerta naranja ¿qué ha pasado?</t>
+          <t>El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, por lo que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+          <t>El director de geoamenazas del Servicio Geológico Colombiano (SGC), John Makario Londoño, entregó un nuevo reporte sobre el comportamiento del volcán Nevado del Ruiz, que amenaza con hacer erupción -desde hace un mes- en término de días o semanas.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-el-servicio-geologico-sigue-monitoreando-el-riesgo-de-erupcion-en-este-puente-festivo/202359/
+          <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-las-cenizas-son-nocivas-para-la-salud/202325/
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: comunidades cercanas al cráter deben ser evacuadas de inmediato, recomienda UNGRD</t>
+          <t>Volcán Nevado del Ruiz: ¿las cenizas son nocivas para la salud?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, por lo que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable. Así se comporta este sábado 29 de abril:</t>
+          <t>El volcán Nevado del Ruiz sigue en alerta naranja por la probabilidad de hacer erupción en término de días o semanas. Su inestable actividad se ha manifestado con anomalías en el fondo del cráter, incremento en los sismos y emisión continua de cenizas. El Servicio Geológico Colombiano explicó el alcance y complicaciones del último fenómeno.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-se-mantiene-el-nivel-de-actividad-naranja/202326/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atentos-reducen-el-perimetro-de-riesgo-por-posible-erupcion-del-volcan-nevado-del-ruiz/202330/
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: baja la sismicidad al interior del edificio volcánico</t>
+          <t>Atentos: reducen el perímetro de riesgo por posible erupción del volcán Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) continúa en nivel de actividad naranja o II sobre el volcán Nevado del Ruiz por riesgo de erupción. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable.</t>
+          <t>En Manizales, se desarrolló un nuevo Puesto de Mando Unificado para analizar todo lo relacionado con el volcán Nevado del Ruiz, bajo el liderazgo del nuevo director de la Unidad Nacional de Gestión del Riesgo de Desastres, Olmedo López.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/avanza-el-mantenimiento-de-las-vias-que-rodean-el-volcan-nevado-del-ruiz/202341/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-inestable-asi-registran-las-autoridades-su-actividad/202344/
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Avanza el mantenimiento de las vías que rodean el volcán Nevado del Ruiz</t>
+          <t>El volcán Nevado del Ruiz sigue inestable: así registran las autoridades su actividad</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Los departamentos que tienen localidades en la zona de influencia del volcán Nevado del Ruiz avanzan en el proceso de preparación ante una posible erupción por el nivel de actividad naranja en el que se encuentra el lugar.</t>
+          <t>El Servicio Geológico Colombiano avanza en el monitoreo 24/7 sobre el volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja o II, lo que indica erupción probable en término de días o semanas, según la declaratoria entregada desde el 30 de marzo.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-erupcion-se-podria-dar-en-dias-o-semanas/202357/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estudiantes-de-cinco-colegios-retomaran-clases-presenciales-luego-de-permanecer-en-casa-por-la-alerta-naranja-en-el-volcan-nevado-de-ruiz/202336/
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: aumenta la actividad sísmica</t>
+          <t>Estudiantes de cinco colegios retomarán clases presenciales luego de permanecer en casa por la alerta naranja en el Volcán Nevado de Ruiz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) mantiene la alerta naranja sobre el volcán Nevado del Ruiz por riesgo de erupción. Según los análisis, podría ser la emergencia más grande de los últimos diez años. Así se ha comportado este jueves, 27 de abril.</t>
+          <t>Tras la declaratoria de alerta naranja por el inminente riesgo de erupción del volcán Nevado del Ruiz, al menos 30 instituciones educativas, ubicadas en el área de influencia, decidieron adoptar la modalidad de clases virtuales como medida preventiva.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/vida-moderna/articulo/mhoni-vidente-hace-sorpresiva-prediccion-sobre-nevado-del-ruiz-para-2023-es-el-ano-de-los-volcanes/202311/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/no-paran-los-temblores-en-el-volcan-nevado-del-ruiz-este-es-el-nuevo-reporte-del-servicio-geologico-colombiano/202348/
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mhoni Vidente hace sorpresiva predicción sobre Nevado del Ruiz para 2023: “Es el año de los volcanes”</t>
+          <t>No paran los temblores en el volcán Nevado del Ruiz; este es el nuevo reporte del Servicio Geológico Colombiano</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mhoni Vidente, sin duda alguna, se ha convertido en una de las tarotistas y videntes más famosas de toda América Latina, producto de los contenidos que genera en las diferentes redes sociales y las predicciones que ha hecho en el último tiempo, como la muerte del hijo de Joan Sebastian.</t>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estas-son-las-alertas-del-ideam-por-lahares-para-los-afluentes-que-nacen-en-el-volcan-nevado-del-ruiz/202331/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atencion-se-registra-temblor-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202314/
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Estas son las alertas del Ideam por lahares para los afluentes que nacen en el volcán Nevado del Ruiz</t>
+          <t>Se registra temblor en la zona de influencia del volcán Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano sigue monitoreando el comportamiento del volcán Nevado del Ruiz que tiene el nivel de actividad en naranja o II, lo que indica erupción probable en el término de días o semanas.</t>
+          <t>El Servicio Geológico Colombiano confirmó la ocurrencia de un sismo con epicentro en uno de los municipios ubicado en la zona de influencia del volcán Nevado del Ruiz.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-cuatro-increibles-panoramicas-de-este-miercoles/202359/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/puede-desatarse-una-alerta-roja-en-el-volcan-nevado-del-ruiz-en-los-proximos-dias/202352/
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: verifican la capacidad de respuesta de los municipios en la zona de influencia</t>
+          <t>¿Puede desatarse una alerta roja en el Volcán Nevado del Ruiz en los próximos días?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz permanece en alerta naranja por la probabilidad de hacer la erupción más grande de los últimos diez años. Mientras las comunidades se alistan para enfrentar la posible emergencia, los expertos no levantan la lupa sobre su actividad. Así se ha comportado este miércoles, 26 de abril:</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-habilitan-nuevas-camas-uci-en-caldas/202317/
-</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Por actividad del volcán Nevado del Ruiz, habilitan nuevas camas UCI en Caldas</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Avanza la preparación en Caldas ante una posible erupción del volcán Nevado del Ruiz, el cual fue declarado en nivel de actividad II o naranja desde el 30 de marzo por el Servicio Geológico Colombiano.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cruz-roja-colombiana-implementara-un-sistema-de-alerta-comunitaria-por-la-actividad-del-volcan-nevado-del-ruiz/202344/
-</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Cruz Roja Colombiana implementará un sistema de alerta comunitaria por la actividad del volcán Nevado del Ruiz</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sigue la preparación en Colombia y de manera especial en la zona de influencia del volcán Nevado del Ruiz, esto ante una posible erupción del mismo, teniendo en cuenta que se mantiene el nivel de actividad en II o naranja.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/servicio-geologico-colombiano-insiste-en-riesgo-de-erupcion-del-volcan-nevado-del-ruiz/202349/
-</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Servicio Geológico Colombiano insiste en riesgo de erupción del volcán Nevado del Ruiz</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>El Servicio Geológico Colombiano (SGC) compartió un nuevo reporte extraordinario sobre el comportamiento del volcán Nevado del Ruiz. Los hallazgos siguen mostrando elementos ante la posible erupción que se podría dar en el Eje Cafetero en cuestión de días o semanas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/posible-erupcion-del-nevado-del-ruiz-podria-generar-una-reaccion-en-cadena-y-activar-otros-volcanes-en-el-pais/202301/
-</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>¿Posible erupción del Nevado del Ruiz generaría una reacción en cadena y activaría otros volcanes? Aquí la respuesta</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Una posible erupción del volcán Nevado del Ruiz mantiene en vilo al país, y en especial a los habitantes de los pueblos y ciudades aledaños que podrían resultar afectadas ante un posible evento natural.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-en-vivo-se-mantiene-alerta-naranja-por-riesgo-de-erupcion/202312/
-</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: 22 municipios con amenaza alta ante posible erupción</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>El Servicio Geológico Colombiano (SGC) informó que la actividad del volcán Nevado del Ruiz sigue inestable, por lo que resulta importante tener activa la alerta naranja que advierte sobre una erupción en días o semanas. De acuerdo con los análisis, sería la más grande de los últimos años.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-fallas-en-el-internet-y-masivos-rayos-son-senales-de-erupcion/202307/
-</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz: ¿fallas en el internet y masivos rayos son señales de erupción?</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Hay que reconocerlo: la posibilidad de una erupción del volcán Nevado del Ruiz es algo que asusta, en un país como Colombia, en donde se tuvo un antecedente con la población tolimense de Armero, pueblo que fue literalmente sepultado por el lodo, las piedras y la lava caliente.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-en-vivo-26-dias-de-inestabilidad-y-riesgo-de-erupcion/202333/
-</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz, en vivo 🔴: cinco fotos de la inestable actividad que amenaza con erupción</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>El Servicio Geológico Colombiano (SGC) activó el 24 de marzo el nivel naranja en la actividad del volcán Nevado del Ruiz por la probabilidad de hacer la erupción más grande de los últimos diez años. Desde entonces se mantiene la inestabilidad que llevó a las autoridades a estar en alerta máxima.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-reportan-sismo-de-magnitud-17-en-municipio-cercano/202342/
-</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz: reportan sismo de magnitud 1,7 en municipio cercano</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>En las últimas horas el Servicio Geológico Colombiano informó que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Persisten los sismos, altas temperaturas en el fondo del cráter y emisión de gases. Con todo esto, se mantiene la alerta naranja por el riesgo de erupción en días o semanas, tal como se ha advertido desde el pasado 30 de marzo de este año 2023, cuando se encendieron las alarmas en cuatro departamentos por las posibles complicaciones.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-alerta-naranja-se-mantendra-por-varias-semanas/202329/
-</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz: alerta naranja se mantendrá por varias semanas</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>El Servicio Geológico Colombiano informó que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Persisten los sismos, altas temperaturas en el fondo del cráter y emisión de gases.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-servicio-geologico-explica-que-significa-la-actividad-inestable/202337/
-</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz: Servicio Geológico explica qué significa la actividad inestable</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>La actividad del Volcán Nevado del Ruiz sigue en constante cambio luego de 25 días en que el Servicio Geológico Colombiano activara la Alerta Naranja. Este lunes, emitieron un nuevo boletín en el que se desglosó la información con las variaciones que ha tenido el volcán.</t>
+          <t>Son muchas las inquietudes que surgen entre la comunidad con relación a la actividad del volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja desde el día 30 de marzo de 2023, por lo que tiene un monitoreo permanente por parte del Servicio Geológico Colombiano.</t>
         </is>
       </c>
     </row>

--- a/semana.xlsx
+++ b/semana.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A2:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,19 +421,120 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/aumenta-la-sismicidad-en-el-volcan-nevado-del-ruiz-la-columna-de-gases-y-ceniza-alcanzo-los-1000-metros-entre-el-26-y-27-de-mayo/202333/
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aumenta la sismicidad en el Volcán Nevado del Ruiz. La columna de gases y ceniza alcanzó los 1.000 metros entre el 26 y 27 de mayo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz sigue en nivel de actividad naranja y con vigilancia permanente por el Servicio Geológico Colombiano a través de los equipos que están instalados en el edificio volcánico y son observados en el Observatorio Vulcanológico y Sismológico de Manizales.
+El último reporte entregado por la entidad confirma que desde las 09:00 a. m. del día 26 de mayo hasta la mañana del sábado 27, “la sismicidad relacionada con el movimiento de fluidos al interior de los conductos volcánicos aumentó en el número de sismos registrados y mantuvo los niveles de energía sísmica, respecto al 25 de mayo”.
+Se presenta un aumento en las magnitudes de los sismos registrados - Foto: Magda Jimena Ríos Bedoya
+De acuerdo con los parámetros que son analizados en el volcán, este tipo de sismicidad estuvo principalmente caracterizada por la ocurrencia de sismos pequeños, localizados en el cráter Arenas, los cuales se asocian a la actividad del domo que es una protuberancia o montículo de lava ubicado en el fondo del cráter.
+“Algunas de las señales sísmicas estuvieron asociadas a emisiones pulsátiles de ceniza confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico”, explicaron desde el Servicio Geológico Colombiano. Ratificaron que se mantiene la actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánico que se ha estado registrando desde el 24 de mayo en el sector nororiental del volcán, a una distancia máxima de 4 kilómetros a partir del cráter Arenas y a profundidades entre 4 y 6 kilómetros.
+Nuevo sismo en Colombia: Córdoba fue el epicentro en la madrugada de este sábado 27 de mayo
+Este caso puntual de la sismicidad presentó disminución en el número de sismos y energía sísmica similar en comparación al 25 de mayo. Con relación a la emisión de gases y ceniza, clasificada como actividad superficial, el volcán Nevado del Ruiz registró varias emisiones con una altura máxima de 1.000 metros medidos desde la cima del edificio.
+Adicionalmente, otra característica del nivel de actividad naranja del volcán decretada desde el día 30 de marzo de 2023, es la relacionada con las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera, las cuales continúan.
+Panorámica del volcán Nevado del Ruiz - Foto: Cortesía: Servicio Geológico Colombiano.
+La actividad del volcán Nevado del Ruiz continúa en nivel naranja por lo que los organismos de socorro siguen el proceso de actualización de censos, educación de la comunidad y entrega de kits de emergencia y ayudas humanitarias; lo anterior teniendo en cuenta que este nivel lo que indica es que existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años.
+“Reiteramos, una vez más, que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros. Sin embargo, esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán”, indica el reporte del Servicio Geológico Colombiano.
+Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas
+En los departamentos de Caldas y Tolima sigue el proceso de adecuación de vías para posibles evacuaciones y reiteran la solicitud al gobierno, por intermedio de la Unidad Nacional para la Gestión del Riesgo de Desastres, para tener los recursos suficientes que permitan continuar con la preparación ante una emergencia mayor.
+Además, le piden a la comunidad conservar la calma, seguir todas las instrucciones de la UNGRD y autoridades locales, y estar atenta a la información proporcionada por el Servicio Geológico Colombiano sobre la evolución del estado del volcán.
+Más de 45 pacas de heno han sido entregadas por parte de la Brigada de Bienestar Animal de la Policía de Carabineros - Foto: Cortesía Policía Caldas</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/la-salida-de-ceniza-en-el-volcan-nevado-del-ruiz-puede-aumentar-segun-el-servicio-geologico/202346/
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>La salida de ceniza en el volcán Nevado del Ruiz puede aumentar, según el Servicio Geológico</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>La actividad en el Volcán Nevado del Ruiz no ha cesado desde el final del mes de marzo. El Servicio Geológico Colombiano informó que en las últimas 24 horas, continuó la actividad sísmica asociada a fracturamiento de roca al interior del edificio volcánico desde que se registró, especialmente desde el 24 de mayo en el sector nororiental del volcán, a una distancia máxima de 4 km a partir del cráter Arenas y a profundidades entre 4 y 6 km.
+De acuerdo con la entidad dicha sismicidad mostró aumento en el número de sismos y en los niveles de energía sísmica respecto al día anterior, 24 de mayo. La máxima magnitud registrada fue de 1,5 ML, correspondiente al sismo de las 01:20 a.m., localizado a 3 km, hacia el nororiente en el cráter Arenas, y a una profundidad aproximada de 5 km respecto a la cima del volcán.
+Volcán Nevado del Ruiz sigue en riesgo de erupción, Servicio Geológico mantiene nivel naranja
+Al respecto de la sismicidad relacionada con el movimiento de fluidos al interior de los conductos volcánicos, informaron que se registraron niveles similares en el número de eventos y en la energía sísmica liberada con relación al 24 de mayo.
+Volcán Nevado del Ruiz este 26 de mayo desde Manizales - Foto: Servicio Geológico Colombiano
+De igual manera, afirmaron que algunas de las señales sísmicas estuvieron asociadas a emisiones pulsátiles de ceniza confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico.
+Sobre la actividad superficial, la altura máxima de la columna de gases y/o ceniza fue de 2800m medidos desde la cima del volcán, asociada a la emisión de ceniza de las 05:13 p.m. de ayer, jueves 25 de mayo. La dirección preferencial de dispersión se mantuvo principalmente hacia el nororiente del volcán, aunque esta mañana se ha observado hacia el noroccidente de este.
+De igual manera, manifestaron que persisten los cambios en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera. Debido a las condiciones atmosféricas, no se ha tenido reporte de anomalías térmicas del fondo del cráter Arenas a partir de las plataformas de monitoreo satelital.
+Volcán Nevado del Ruiz en el sector de Pitayó este 26 de mayo - Foto: Servicio Geológico Colombiano
+Por lo cual, la entidad insistió, una vez más, que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Dicho esto, afirman que es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza, disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros.
+No obstante, esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que se recomienda no acostumbrarse a estos cambios oscilatorios de actividad y pensar que es una actividad normal del volcán.
+El volcán puede hacer erupción
+Por ello, reiteraron que la actividad del volcán Nevado del Ruiz continúa en nivel naranja, lo que indica que existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años.
+volcán Nevado del Ruiz este 24 de mayo - Foto: Servicio Geológico Colombiano
+Para cambiar de nivel y retornar a nivel Amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la disminución de la actividad, aspectos que la actual actividad del volcán todavía no muestra.
+Por esto, advirtieron que el nivel de actividad del volcán Nevado del Ruiz permanecerá en nivel naranja por varias semanas. Durante este tiempo, en caso de que se produzca una aceleración de los procesos que sugieran una erupción inminente o que se produzca la erupción en sí, el nivel de actividad se cambiará a Rojo.
+“Estamos en período de alistamiento por señales preocupantes del volcán Nevado del Ruiz”: director de Gestión del Riesgo
+Finalmente, el Servicio Geológico recomienda a la población, conservar la calma, seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y autoridades locales, y estar atenta a la información proporcionada por los organismos estatales sobre la evolución del estado del volcán.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/alerta-volcan-nevado-del-ruiz-sigue-en-riesgo-de-erupcion-servicio-geologico-mantiene-nivel-naranja/202300/
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz sigue en riesgo de erupción, Servicio Geológico mantiene nivel naranja</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz registró este 24 de mayo actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, según el Servicio Geológico Colombiano (SGC); además, presentó aumento en el número de estos movimientos y en la energía liberada, en comparación al 22 de mayo, por eso se mantiene el nivel naranja, alerta que va a cumplir dos meses de haberse generado desde el 30 de mayo pasado.
+Volcán Nevado del Ruiz desde Manizales este 24 de mayo. - Foto: Servicio Geológico Colombiano
+Sin embargo, se refirieron a los movimientos telúricos que se registraron, señalando que algunas de las señales sísmicas estuvieron asociadas a emisiones pulsátiles de ceniza, confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico.
+“Estamos en período de alistamiento por señales preocupantes del volcán Nevado del Ruiz”: Gestión del Riesgo
+Paralelamente, informaron que se registró actividad sísmica asociada al fracturamiento de roca al interior del edificio volcánico, la cual mostró aumento en el número de sismos y niveles similares en la energía sísmica respecto al 23 de mayo.
+Los sismos se localizaron en el cráter Arenas y en los sectores nororiente y suroccidente del mismo, a una distancia máxima de tres kilómetros, a partir de este y a profundidades que oscilaron entre uno y seis kilómetros.
+En cuanto a la actividad superficial, la altura máxima de la columna de gases y/o ceniza fue de 1800 m, medidos desde la cima del volcán y ha presentado una dirección preferencial de dispersión hacia el nororiente.
+Volcán Nevado del Ruiz. - Foto: Servicio Geológico Colombiano
+Desde el SGC informaron que continúan las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera.
+Todos estos indicadores ratifican lo que desde el SGC hemos reiterado: la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Es posible que los niveles de actividad sísmica, así como los niveles de desgasificación o salida de ceniza, disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros.
+No obstante, explicaron que esto no implica que el volcán haya retornado a sus niveles normales de actividad, por lo que reiteraron la recomendación de no acostumbrarse a estos cambios oscilatorios y pensar que es una actividad normal del volcán.
+Desde el Servicio Geológico insisten en no normalizar la actividad en la zona del volcán. - Foto: Cortesía: Servicio Geológico Colombiano.
+Por ello, “reiteramos que la actividad del volcán Nevado del Ruiz continúa en nivel naranja, lo que indica que existe una probabilidad de que en días o semanas haga una erupción mayor a las que ha hecho en los últimos 10 años”.
+Para cambiar de nivel y retornar a nivel amarillo se requiere un tiempo prudencial donde se puedan observar tendencias y patrones que permitan inferir la posible disminución de la actividad, aspectos que la actual actividad del volcán todavía no muestra. Por esto, continúan advirtiendo que el nivel de actividad del volcán Nevado del Ruiz permanecerá en nivel naranja, por varias semanas.
+Atentos: Risaralda ya no hace parte de la zona de evacuación del volcán Nevado del Ruiz
+Durante este tiempo, en caso de que se produzca una aceleración de los procesos que sugieran una erupción inminente o que se produzca la erupción en sí, el nivel de actividad se cambiará a Rojo.
+Asimismo, desde el Servicio Geológico Colombiano, insistieron a la comunidad en la importancia de conservar la calma, seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y autoridades locales, y estar atentos a la información proporcionada por el Servicio Geológico sobre la evolución del estado del volcán.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/se-conocen-nuevas-hipotesis-sobre-los-gases-que-salen-de-la-laderas-de-cerro-bravo-en-la-via-manizales-fresno/202344/
 </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Atentos: primera gran conclusión sobre gases que emanan de laderas de Cerro Bravo, entre Manizales y Fresno. No son volcánicos</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Tal como lo había anunciado el Servicio Geológico Colombiano (SGC), el día de ayer (domingo 21 de mayo), realizó análisis geoquímicos para determinar las causas de la anomalía que se está presentando de las laderas del volcán Cerro Bravo.
 Según los resultados de los análisis, el SGC confirmó que esta anomalía no está relacionada con eventos geológicos, y en particular con la actividad del volcán Cerro Bravo o del volcán Nevado del Ruiz, ubicado a aproximadamente 22 km de distancia y en nivel Naranja.
@@ -459,19 +560,19 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/alerta-fuego-en-las-entranas-de-cerro-bravo-en-la-via-manizales-fresno-asi-quedo-registrado-en-un-video/202312/
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alerta: fuego en las entrañas de Cerro Bravo en la vía Manizales-Fresno. Así quedó registrado en un video</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>En los últimos días, la preocupación en el departamento de Caldas ha incrementado, luego de que se conocieran gases que salen de una de las laderas del sector conocido como Cerro Bravo, en la vía Manizales-Fresno.
 De acuerdo con el Servicio Geológico Colombiano (SGC), es poco probable que estos gases sean realmente de origen volcánico. “De acuerdo con los resultados de las inspecciones y estudios realizados hasta el momento, esta anomalía no obedece a la actividad de este volcán y se abre la posibilidad de que se deba a la degradación de materia orgánica en el lugar”, señala el comunicado.
@@ -486,6 +587,8 @@
 Debido a la anomalía térmica asociada al subsuelo y que fue detectada en el sector conocido como Cerro Bravo, municipio de Herveo, Tolima, el Ministerio de Minas y Energías se manifestó ante la situación y envió algunas advertencias a los ciudadanos.
 MinMinas aseguró que de acuerdo con el reporte técnico, los valores de temperatura del subsuelo en este punto -Cerro Bravo- alcanzaron los 600 °C.
 Teniendo en cuenta que esta condición anormal, ubicada a una distancia de 1,5 metros y 1,80 metros de profundidad, podría llegar a afectar el adecuado funcionamiento de la tubería correspondiente al gasoducto Mariquita-Cali, la empresa TGI decide de manera preventiva aislar el tramo expuesto al riesgo.
+Así esta Cerro Bravo, según las autoridades, los gases son metano, no es de origen volcanico, juzgen ustedes. pic.twitter.com/DLQeKqj97n
+— Ecos al Vacio (@ecosalvacio) May 21, 2023
 Por otro lado, los resultados de las inspecciones y análisis realizados hasta el momento por el Servicio Geológico Colombiano (SGC), esta anomalía no obedece a la actividad del volcán Cerro Bravo, que actualmente se encuentra en nivel verde (activo, pero en reposo).
 Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas
 Sin embargo, con el fin de contribuir al esclarecimiento del origen de este fenómeno, este domingo, especialistas de esta entidad nuevamente harán mediciones de la temperatura del suelo y evaluarán la presencia de dióxido de azufre (S02); inspeccionarán la incandescencia que hay en uno de los puntos de salida de gases, y estimarán el flujo de varios gases presentes en el suelo: dióxido de car bono (C02), sulfuro de hidrógeno (H2S), y metano (CH4).
@@ -495,19 +598,19 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/gases-en-la-via-manizales-fresno-no-serian-originados-por-el-volcan-cerro-bravo/202319/
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gases en la vía Manizales - Fresno no serían originados por el volcán Cerro Bravo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Desde el Servicio Geológico Colombiano (SGC), se ha dado a conocer una información, según la cual es poco probable que los gases que salen de una de las laderas del sector conocido como Cerro Bravo, en la vía Manizales - Fresno, sean realmente de origen volcánico.
 “De acuerdo con los resultados de las inspecciones y estudios realizados hasta el momento, esta anomalía no obedece a la actividad de este volcán y se abre la posibilidad de que se deba a la degradación de materia orgánica en el lugar”, señala el comunicado.
@@ -532,19 +635,19 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/pereira/articulo/atentos-risaralda-ya-no-hace-parte-de-la-zona-de-evacuacion-del-volcan-nevado-del-ruiz/202313/
 </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Atentos: Risaralda ya no hace parte de la zona de evacuación del volcán Nevado del Ruiz</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Como balance del Puesto de Mando Unificado N°17 que se realiza en Colombia desde el 30 de marzo, cuando se declaró la alerta naranja, por actividad en el volcán Nevado del Ruiz, se determinó modificar la zona de evacuación.
 La información fue revelada por Olmedo López, director de la Unidad Nacional para la Gestión del Riesgo de Desastres -UNGRD-, la entidad, que indicó que la decisión fue tomada con el Servicio Geológico Colombiano, que está al frente de la vigilancia del edificio volcánico.
@@ -564,25 +667,27 @@
 Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
 El director de la UNGRD destacó que para las zonas de amenaza alta que se encuentran por fuera de las áreas de evacuación como es el caso de algunos sectores con flujo de lodo “es fundamental mantener los preparativos para la evacuación, consolidación, ejercicios de simulación y simulacros que involucren a las comunidades; así como la verificación y ajuste del sistema de alerta temprana”.
 La zona donde aumenta el radio de acción incluye en el Tolima 16 veredas del municipio de Murillo, 3 de Líbano, 1 de Herveo, 14 de Villahermosa y 6 de Casabianca. Adicionalmente de Caldas se incluye un municipio.
+Boletín extraordinario del volcán Nevado del Ruiz - 19 de mayo, 11:50 a.m. El nivel de actividad continúa en NARANJA 🔸https://t.co/aLRWxOnxqg#SGCVolcanes pic.twitter.com/QgotU9fWny
+— Servicio Geológico Colombiano (@sgcol) May 19, 2023
 “Eso significa que debemos de concentrar nuestros esfuerzos de revisión, evacuación y acompañamiento a los municipios. Se han destinado suficientes recursos para el territorio y si son necesarios se involucrarán más”, dijo.
 Con relación a la actividad del volcán Nevado del Ruiz, destacó que en las últimas semanas se ha mantenido el nivel por lo que es necesario seguir implementando las medidas de prevención y revisar las intervenciones en el territorio.
 En la zona rural se adelanta un trabajo de actualización del censo. Foto: Cortesía Alcaldía de Manizales. - Foto: Cortesía Alcaldía de Manizales</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-para-mejorar-la-comunicacion-en-los-municipios-de-influencia-instalaran-mas-de-50-antenas/202305/
 </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Volcán Nevado del Ruiz: para mejorar la comunicación en los municipios de influencia instalarán más de 50 antenas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Para avanzar en la preparación ante una eventual erupción del volcán Nevado del Ruiz, continúan los procesos de actualización de los censos de las familias ubicadas en la zona de influencia, jornadas de educación y adecuación de vías de evacuación, entre otras intervenciones.
 A esto se suma el anuncio realizado por el ministro de las TIC, Mauricio Lizcano Arango relacionado con la instalación de 50 nuevas antenas para mejorar la comunicación de los habitantes de la zona.
@@ -595,6 +700,9 @@
 El volcán sigue en nivel de actividad naranja. - Foto: Cortesía Gobernación de Caldas
 A esto se suma que Wom anunció que trabaja para incrementar en un 26 % su cobertura en 41 municipios con algún grado de afectación por el volcán. Por último, Telefónica-Movistar confirmó que ha repotenciado más de 50 estaciones base en la zona de influencia de este edificio volcánico que se encuentra en nivel de actividad naranja.
 “Los operadores ya se comprometen con obligaciones de hacer para que, Dios quiera, no pase nada, pero si sucede algo, que tengamos las capacidades de responder. Si no ocurre nada con el volcán, estas comunicaciones les sirven a todas las comunidades”, aseveró el ministro TIC.
+El #MinistroTIC @MauricioLizcano inicia su agenda regional en Caldas.
+Desde Villamaría, analizaremos con alcaldes y organismos de atención de emergencias de municipios aledaños al #NevadoDelRuiz sus necesidades en materia de comunicaciones para plantear soluciones. pic.twitter.com/H1IgCqlq6u
+— Ministerio TIC (@Ministerio_TIC) May 18, 2023
 Recalcó que la instalación de estas 50 antenas obedece a la estrategia que MinTIC creó de la mano de las empresas de telecomunicaciones móviles, satelitales y de radio, con el fin de garantizar la calidad y cobertura de las comunicaciones en los departamentos de Caldas, Risaralda y Tolima.
 “Además, entregaremos antenas a los organismos de socorro para que se puedan comunicar en caso de una eventual erupción”, puntualizó el ministro, quien anunció la entrega de computadores para que los niños desescolarizados por la alerta naranja continúen con sus clases.
 Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
@@ -605,19 +713,19 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cual-es-la-actualidad-de-los-volcanes-activos-de-colombia-este-es-el-reporte-del-servicio-geologico-colombiano/202356/
 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>¿Cuál es la actualidad de los volcanes activos de Colombia? Este es el reporte del Servicio Geológico Colombiano</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Desde hace más de 45 días, en Colombia hay reportes a diario de lo que sucede con el volcán Nevado del Ruiz, debido a que el 30 de marzo su nivel de actividad pasó a naranja.
 Pero hay que tener en cuenta que este no es el único volcán activo que hay en el país y que, por lo tanto, hay otros que también son vigilados para determinar si presentan variaciones en su comportamiento.
@@ -648,19 +756,19 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/sigue-siendo-un-misterio-el-origen-de-los-gases-que-salen-de-cerro-bravo-en-la-via-manizales-bogota/202324/
 </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Los gases en la montaña cerca de Manizales tienen temperaturas de 70 grados y un olor irritante: esto dice el Servicio Geológico sobre el misterioso fenómeno</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Desde el Servicio Geológico Colombiano indicaron que aún no se ha podido identificar la causa de la salida de gases y vapor en el sector del Alto de Letras, en la vía Manizales-Bogotá.
 De acuerdo con la entidad, especialistas han realizado dos visitas técnicas a la zona y han verificado salida de dióxido de carbono (CO₂) en concentraciones elevadas en varios puntos de la montaña, localizadas en un tramo de menos de 20 metros de largo.
@@ -668,10 +776,16 @@
 La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras. - Foto: Pantallazo video Tik Tok @jery..operador.560
 La entidad, sin embargo, no descarta un posible origen volcánico de estos gases, por lo que advierte que continuarán investigando para determinar qué es lo que ocurre en la zona.
 Destacan que se está preparando una comisión conjunta interinstitucional del Servicio Geológico Colombiano, la Corporación Autónoma Regional de Caldas (Corpocaldas) y la Transportadora de Gas Internacional (TGI), con el fin de obtener más datos, particularmente geoquímicos, sobre este evento.
+📢Respecto a la salida de gases y vapor en el sector de Letras, en la vía Bogotá-Manizales, el Servicio Geológico Colombiano (SGC) informa que:
+Abrimos 🧵👇🏽 pic.twitter.com/xfISPeewzP
+— Servicio Geológico Colombiano (@sgcol) May 17, 2023
 Cerro Bravo: descartan fuga de gas de la infraestructura de TGI, entre el Puente La Libertad y Fresno
 Avanzan las investigaciones y las visitas técnicas que permitan determinar qué es lo que está generando la salida de gases o una especie de humo blanco de la ladera de Cerro Bravo que está ubicada entre el Alto de Letras en Manizales y Herveo que pertenece al departamento del Tolima.
 Lo que sucede en este lugar fue grabado en video por el usuario de la red social Tik Tok, @jery..operador.560, y muestra cómo este fenómeno se extiende por varios metros a lo largo de la carretera que permite la comunicación con los municipios del oriente de Caldas y la ciudad de Bogotá.
 De acuerdo con lo que le manifestó a SEMANA este internauta, identificado como Juan Pablo León Tovar, en el sitio se percibe un fuerte olor y además se escuchan sonidos extraños desde hace algunos días.
+@akelarre186
+volcán Cerro Bravo Este fenómeno se esta presentando en el Volcán Cerro Bravo, en el municipio de Herveo Tolima, desde el pasado Jueves 11 de Mayo, no se sabe aún que es lo que esta pasando aunque al parecer el fenómeno es de origen volcánico, pero no soy autoridad pertinente para confirmar, vivo en un sector cercano al volcan y no había presenciado este tipo de fenómeno antes, #cerrobravo #tolima #ibague #herveotolima #herveo #volcan #colombia #manizales #altodeletras #volcancerrobravo
+♬ original sound - Juan Pablo León Tovar
 “Me pareció muy curioso el fenómeno porque tengo entendido que el volcán Cerro Bravo desde 1720 no hace erupción. Sin embargo, me causa mucha curiosidad porque justamente en esa zona pasa una tubería del gasoducto”, indicó.
 El sitio ha sido visitado por técnicos del Servicio Geológico Colombiano y la Unidad de Gestión del Riesgo de Caldas. A ellos se suman profesionales de la Transportadora de Gas Internacional TGI S. A. EPS, filial del Grupo de Energía de Bogotá, quienes descartaron que esta situación se deba a una fuga de gas.
 “La información que circula en las redes sociales no corresponde a fugas de la infraestructura de TGI. El 12 de mayo, fecha en la cual se evidenció la presencia de gases en proximidades de nuestro gasoducto, TGI activó los protocolos de seguridad y con el rigor técnico y experiencia de sus profesionales constata que, dadas las características del evento relacionadas con la composición química del gas, temperatura, olor y comportamiento del material, la situación no se trata de una fuga del gasoducto de TGI”, indica la empresa de manera oficial.
@@ -690,485 +804,543 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cerro-bravo-descartan-fuga-de-gas-de-la-infraestructura-de-tgi-entre-el-puente-la-libertad-y-fresno/202305/
-</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cerro Bravo: descartan fuga de gas de la infraestructura de TGI, entre el Puente La Libertad y Fresno</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Avanzan las investigaciones y las visitas técnicas que permitan determinar qué es lo que está generando la salida de gases o una especie de humo blanco de la ladera de Cerro Bravo que está ubicada entre el Alto de Letras en Manizales y Herveo que pertenece al departamento del Tolima.
-Lo que sucede en este lugar fue grabado en video por el usuario de la red social Tik Tok, @jery..operador.560, y muestra como este fenómeno se extiende por varios metros a lo largo de la carretera que permite la comunicación con los municipios del oriente de Caldas y la ciudad de Bogotá.
-Se analiza si tiene relación con el volcán Nevado del Ruíz - Foto: Pantallazo video Tik Tok @jery..operador.560
-De acuerdo con lo que le manifestó a SEMANA este internauta, identificado como Juan Pablo León Tovar, en el sitio se percibe un fuerte olor y además se escuchan sonidos extraños desde hace algunos días.
-“Me pareció muy curioso el fenómeno porque tengo entendido que el volcán Cerro bravo desde 1720 no hace erupción. Sin embargo, me causa mucha curiosidad porque justamente en esa zona pasa una tubería del gasoducto”, manifestó.
-Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia
-El sitio ha sido visitado por técnicos del Servicio Geológico Colombiano y la Unidad de Gestión del Riesgo de Caldas. A ellos se suman profesionales de la Transportadora de Gas Internacional TGI S.A. EPS, filial del Grupo de Energía de Bogotá, quienes descartaron que esta situación se deba a una fuga de gas.
-“La información que circula en las redes sociales no corresponde a fugas de la infraestructura de TGI. El 12 de mayo, fecha en la cual se evidenció la presencia de gases en proximidades de nuestro gasoducto, TGI activó los protocolos de seguridad y con el rigor técnico y experiencia de sus profesionales constata que, dadas las características del evento relacionadas con la composición química del gas, temperatura, olor y comportamiento del material, la situación no se trata de una fuga del gasoducto de TGI”, indica la empresa de manera oficial.
-El SGC y la Unidad de Gestión del Riesgo de Caldas adelanta la investigación para determinar la causa del fenómeno - Foto: Pantallazo video Tik Tok @jery..operador.560
-Desde TGI aclaran que la extraña situación se presenta de manera puntual sobre la ruta nacional Puente La Libertad – Fresno en la vía Mariquita – Letras, desde el PR 37+150 al PR 37+620, sector Cerro Bravo, jurisdicción del municipio de Herveo, departamento de Tolima.
-Aseguran que la situación le fue notificada al Servicio Geológico Colombiano quienes han ejecutado visitas de campo desde el día sábado 13 de mayo. “Desde TGI hemos dado traslado a las autoridades competentes entre las cuales están el Servicio Geológico Colombiano, Instituto Nacional de Vías (INVIAS), Oficinas de Gestión del Riesgo y Desastres de los departamentos de Tolima y Caldas y los municipios de Herveo y Manizales, Cuerpo de Bomberos de Herveo y Manizales, para que tomen las medidas correspondientes para el control y mitigación de los efectos producidos por esta emanación de gases”.
-Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza
-Con relación al día en el que se empezó a observar este fenómeno, algunos trabajadores que se encuentran en la zona han indicado que, desde el jueves, 11 de mayo, sale este gas y que incluso han escuchado sonidos de piedra y una especie de detonaciones, las cuales parecen provenir desde el interior de la montaña.
-Al descartar que la especie de humo que se ve en el lugar se trate de gas, la prestación de este servicio se presta con total normalidad en los sectores industrial, residencial, térmicas y Gas Natural Vehicular GNV.
-De acuerdo con el autor del video que se acercó al sitio “pude observar que la zona vegetal dónde se ven los orificios está algo quemada, el aire es tibio y tiene un fuerte olor como a amoniaco”, señaló.
-Al descartar la fuga de gas por parte de TGI, a la fecha no se conocen las causas de este particular fenómeno, ni tampoco si guardan alguna relación con el nivel de actividad naranja del volcán Nevado del Ruiz.
-El jefe de la Unidad de Gestión del Riesgo de Caldas, Félix Ricardo Giraldo Delgado, pidió a la comunidad guardar la calma y hacer caso únicamente de la información que se entrega desde las entidades oficiales como la Gobernación de Caldas o el Servicio Geológico Colombiano, con el objetivo de evitar la aparición y propagación de mensajes con contenido falso en las redes sociales.
-La montaña es conocida como Cerro Bravo y está ubicada antes del Alto de Letras - Foto: Pantallazo video Tik Tok @jery..operador.560
-Igualmente, se pronunció a través de un breve comunicado el Servicio Geológico Colombiano, (SGC), manifestando lo siguiente:
-“Con respecto a los videos que circulan en redes sobre una emanación de gas en una de las laderas del sector suroriental del volcán Cerro Bravo, sobre la vía Manizales-Bogotá (cerca del sector conocido como La Virgen), desde el Servicio Geológico Colombiano les contamos que, de momento, estamos haciendo las respectivas inspecciones en campo, así como el análisis y evaluación de la información. En cuanto tengamos novedades, les estaremos informando”.
-📣Hemos recibido muchas preguntas hoy sobre los videos que están circulando en redes y que muestran una emanación de gas en una de las laderas del sector suroriental del volcán Cerro Bravo🌋, sobre la vía Manizales-Bogotá (cerca del sector conocido como La Virgen).
-Sigue👇
-— Servicio Geológico Colombiano (@sgcol) May 16, 2023
-Cerro Bravo es un estratovolcán compuesto por varias capas de lava endurecida y piroclastos, el cual se encuentra al norte del Nevado del Ruiz, aunque no tiene nieve en la cumbre debido a su altura.
-En la clasificación que lleva a cabo el SGC indica que es un estratovolcán caldérico activo, que cuenta con dos calderas concatenadas de 1.5 y 1.0 Kilómetros de diámetro y muy violento. Se calcula que su última erupción se habría dado aproximadamente en el año 1720.
-En la actualidad el volcán Cerro Bravo se encuentra en nivel de actividad verde o IV, lo que indica que su comportamiento se mantiene estable y está en reposo.
-En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-entregan-alimento-para-los-animales-ubicados-en-la-zona-de-influencia/202353/
-</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Los 45 días que lleva la declaratoria del nivel de actividad naranja del volcán Nevado del Ruiz, tiene a las autoridades de los municipios ubicados en la zona de influencia a mantener la preparación ante una eventual erupción, la cual puede darse en el término de días o semanas.
-El proceso ha incluido la evacuación de las familias, la actualización de los censos y la entrega de kits de emergencia. A esto se suma la entrega de más de 45 pacas de heno por parte de la Brigada de Bienestar Animal de la Policía de Carabineros.
-Los uniformados verifican las condiciones de salud de los animales y entregan recomendaciones - Foto: Cortesía Policía Caldas
-Uno de los procesos de entrega se realizó en la ribera del río Chinchiná donde las familias tienen más de 105 animales entre vacas, caballos, perros, gatos y gallinas; los cuales pueden quedar en riesgo ante fenómenos como la caída de ceniza.
-Los uniformados del grupo de carabineros y guías caninos del departamento de Caldas, entregaron el alimento para equinos y bovinos. Adicional a esto adelantaron un proceso de verificación de los parámetros de salud de los animales como salud, nutrición, espacios seguros y comportamiento.
-Video: los misteriosos gases que emanan de la montaña en una vía hacia Manizales cerca del Nevado del Ruiz. Esto es lo que se sabe
-Entre las recomendaciones que deben tener en cuenta las personas que viven en la zona de influencia del volcán Nevado del Ruiz, para el cuidado de sus animales, se encuentran:
-Si estos entran en contacto directo con la ceniza volcánica, es recomendable limpiar sus ojos, boca y nariz con abundante agua. Además, es importante cambiar constantemente el agua que beben y la comida que consumen.
-En caso de que los animales sufran quemaduras por la ceniza del volcán, se puede humedecer paños y aplicarlos sobre las zonas afectadas. En caso de que las lesiones sean graves, es recomendable llevar a los animales al veterinario.
-Se debe evitar sacar a las mascotas a pasear cuando haya presencia de ceniza volcánica en el ambiente.
-Resguardar a los animales en un lugar seguro, preferiblemente dentro de la casa.
-Lo que más preocupa en la zona es la atención de los bovinos - Foto: Cortesía Alcaldía de Manizales
-Frente a este tema, desde la Alcaldía de Manizales le recordaron a la comunidad que para proteger a las mascotas es necesario lavar con frecuencia sus recipientes de agua y alimentos, los cuales no se deben dejar a la intemperie.
-A esto se suma la necesidad de lavarles los pulpejos sólo con agua sin utilizar productos químicos ni jabón, cepillarles en seco el pelaje después de cada salida, disminuir o evitar que olfateen y laman el piso y limpiar suavemente con toallitas húmedas sus ojos, nariz y oídos.
-Ante la caída de ceniza del volcán Nevado del Ruiz, se debe tener en cuenta que esta puede afectar a las mascotas con:
-Irritación de ojos, conjuntivas y fosas nasales.
-Tos o estornudos.
-Secreciones oculares y/o nasales.
-Irritación de la piel y almohadillas plantares.
-Afecciones digestivas por consumo accidental de ceniza en alimento o agua.
-En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz
-Recuperan animales en municipios de Caldas
-En el municipio de Palestina, gracias a la colaboración de la ciudadanía fue recuperada por las autoridades una guacamaya azul y amarilla de nombre científico Ara ararauna y un ejemplar infantil de perezoso de tres dedos de nombre científico Choloepus hoffmanni.
-Adicionalmente en el municipio de Neira, las autoridades lograron la incautación de tres especies de aves, entre ellos un loro frente azul, un loro frente amarillo y un sinsonte.
-Los animales fueron entregados de manera voluntarias por las personas que los tenían - Foto: Cortesía Policía Caldas
-Indicaron que las personas que tenían en su poder estos animales permitieron de forma voluntaria el ingreso de los uniformados a sus lugares de residencia, con el objetivo de realizar el procedimiento de incautación.
-El mamífero y las aves fueron dejadas a disposición del Centro de Atención, Valoración y Rehabilitación de Fauna Silvestre de la Corporación Autónoma Regional de Caldas, para valoración médico veterinaria y posterior restitución de su vida silvestre.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-que-aumento-la-sismicidad-es-peligroso/202347/
-</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Volcán Nevado del Ruiz: reportan que aumentó la sismicidad, ¿es peligroso?</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>El Servicio Geológico Colombiano continúa con el monitoreo constante de la actividad del volcán Nevado del Ruiz, el cual reporta nuevas eventualidades con relación a lo registrado en días anteriores.
-Una de las novedades se presenta con el aumento de la actividad sísmica asociado a fracturamiento de roca al interior del edificio volcánico los días 14 y 15 de mayo. De acuerdo con la entidad, “presentó un aumento importante en cuanto a número de sismos y energía sísmica liberada en comparación al día 13 de mayo y a la semana anterior”.
-El Servicio Geológico Colombiano analiza los parámetros del volcán - Foto: Cortesía Servicio Geológico Colombiano
-Adicionalmente, de acuerdo con el reporte entregado por los expertos basados en los registros de las cámaras web y los demás equipos instalados en la zona del volcán, esta sismicidad estuvo localizada principalmente al suroccidente del cráter Arenas, a una distancia entre 4 y 5 km de este, con profundidades que oscilaron entre 2 y 4 km.
-Los sismos fueron sentidos en el sector Lagunilla y el municipio de Murillo, zonas que pertenecen al departamento del Tolima. “La magnitud máxima fue de 2,8 Magnitud Local, correspondiente a dos sismos registrados el día 14 de mayo a las 12:59 p. m. y 1:00 p. m.”, dice el reporte del Servicio Geológico.
-Video: los misteriosos gases que emanan de la montaña en una vía hacia Manizales cerca del Nevado del Ruiz. Esto es lo que se sabe
-De otro lado, la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos presentó un aumento, especialmente en la energía sísmica liberada.
-La entidad destaca que algunas de las señales sísmicas estuvieron asociadas a emisiones pulsátiles de ceniza, confirmadas a través de las cámaras web utilizadas para el monitoreo volcánico. “Se destaca la emisión de ceniza registrada en la mañana de este lunes, 15 mayo, a las 5:20 a. m., que generó la caída de ceniza en los municipios de Manizales y Villamaría, que pertenecen al departamento de Caldas”.
-Desde el SGC reiteran que la actividad del volcán Nevado del Ruiz sigue siendo muy inestable y que es posible que los niveles de actividad sísmica, así como los de desgasificación o salida de ceniza disminuyan o sean oscilatorios, en el sentido de aumentar unos días y disminuir otros.
-Foto del Volcán Nevado del Ruiz y su actividad sísmica - Foto: Servicio Geológico Colombiano
-Los expertos confirman que en Manizales se presentaron reporte de olor a azufre y destacan que es posible que esto se deba” a la dispersión de una alta concentración de dióxido de azufre (SO2) desde el volcán que, junto con algunos componentes de la ceniza, pudieron reaccionar con la humedad en el ambiente y percibirse olor y sensación irritante similar a compuestos azufrados”.
-Para tranquilidad de la comunidad, el SGC le aclara que la ocurrencia de este tipo de fenómenos no indica ningún cambio relevante en la actividad del volcán, “simplemente se da de manera ocasional cuando este tipo de factores confluyen (concentración de SO2 y alta humedad), y está contemplada dentro de los parámetros de un volcán en nivel de actividad naranja”.
-Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza
-Félix Ricardo Giraldo Delgado, jefe de la Unidad de Gestión del Riesgo de Caldas, explicó frente a esta situación que “con las fuertes lluvias que han caído en la ciudad se presentó una dispersión en toda el área urbana de estas dos localidades y esto se vio reflejado en vehículos y en calles que notaron obviamente este fenómeno de caída de ceniza volcánica”.
-A esto se suma un fuerte olor a azufre desde tempranas horas de la mañana en casi toda la ciudad de Manizales y esto obedece a la emisión de gases, vapores y cenizas recurrentes desde el interior del volcán Nevado del Ruiz.
-Buscan potenciar las sirenas que ya se tienen en sectores como Viejo Río Claro y El Destierro de Villamaría - Foto: Cortesía Gobernación de Caldas
-Piden a la comunidad conservar la calma, seguir todas las instrucciones de la Unidad Nacional para la Gestión del Riesgo de Desastres (UNGRD) y de las autoridades locales, y estar atenta a la información proporcionada por el Servicio Geológico Colombiano sobre la evolución del estado del volcán.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/manizales-y-el-extrano-olor-a-azufre-que-proviene-del-volcan-nevado-del-ruiz-en-la-ciudad-se-ha-tenido-una-fuerte-caida-de-ceniza/202347/
-</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Los habitantes Manizales y quienes se encuentran en ella por algún motivo, han tenido que afrontar en este lunes, 15 de mayo, diferentes fenómenos naturales que les recuerda que el volcán Nevado del Ruiz está en actividad.</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-normalidad-en-manizales-luego-de-sismo-de-magnitud-50/202305/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/cerro-bravo-descartan-fuga-de-gas-de-la-infraestructura-de-tgi-entre-el-puente-la-libertad-y-fresno/202305/
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: reportan normalidad en Manizales luego de sismo de magnitud 5.0</t>
+          <t>Cerro Bravo: descartan fuga de gas de la infraestructura de TGI, entre el Puente La Libertad y Fresno</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>En la madrugada de este domingo, 14 de mayo, se registró un sismo en Colombia se sintió en diferentes partes del país. En principio, el Servicio Geológico Colombiano (SGC) dijo que fue de magnitud 4,3 y luego precisó que fue de 5,0, con epicentro en Acacias, Meta, y una profundidad menor a 30 kilómetros.</t>
+          <t>Avanzan las investigaciones y las visitas técnicas que permitan determinar qué es lo que está generando la salida de gases o una especie de humo blanco de la ladera de Cerro Bravo que está ubicada entre el Alto de Letras en Manizales y Herveo que pertenece al departamento del Tolima.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-podria-haber-caida-de-ceniza-en-tres-municipios-del-tolima/202358/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-actividad-del-volcan-nevado-del-ruiz-entregan-alimento-para-los-animales-ubicados-en-la-zona-de-influencia/202353/
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: podría haber caída de ceniza en tres municipios del Tolima</t>
+          <t>Por actividad del volcán Nevado del Ruiz, entregan alimento para los animales ubicados en la zona de influencia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Este 13 de mayo el Servicio Geológico Colombiano (SGC) publicó un nuevo boletín extraordinario en el cual da detalles sobre la situación del volcán Nevado del Ruiz. En el documento, la entidad advierte que se siguió presentando actividad sísmica debido al contante movimiento de fluidos dentro de los conductos volcánicos.</t>
+          <t>Los 45 días que lleva la declaratoria del nivel de actividad naranja del volcán Nevado del Ruiz, tiene a las autoridades de los municipios ubicados en la zona de influencia a mantener la preparación ante una eventual erupción, la cual puede darse en el término de días o semanas.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-podria-hacer-erupcion-en-dias-o-semanas/202342/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-que-aumento-la-sismicidad-es-peligroso/202347/
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: ¿podría hacer erupción en días o semanas?</t>
+          <t>Volcán Nevado del Ruiz: reportan que aumentó la sismicidad, ¿es peligroso?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El 30 de marzo el Servicio Geológico Colombiano (SGC) se vio en la obligación de encender las alarmas por el inestable comportamiento del volcán Nevado del Ruiz dado que podría protagonizar la erupción más grande de la última década. Desde entonces, las condiciones no han variado y permanece el riesgo de la emergencia.</t>
+          <t>El Servicio Geológico Colombiano continúa con el monitoreo constante de la actividad del volcán Nevado del Ruiz, el cual reporta nuevas eventualidades con relación a lo registrado en días anteriores.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/en-caldas-buscan-mejorar-el-sistema-de-alertas-tempranas-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202356/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/manizales-y-el-extrano-olor-a-azufre-que-proviene-del-volcan-nevado-del-ruiz-en-la-ciudad-se-ha-tenido-una-fuerte-caida-de-ceniza/202347/
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz</t>
+          <t>Manizales y el extraño olor a azufre que proviene del volcán Nevado del Ruiz. En la ciudad se ha tenido una fuerte caída de ceniza</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Los departamentos y municipios que están en la zona de influencia del volcán Nevado del Ruiz avanzan en el proceso de preparación ante una eventual emergencia, teniendo en cuenta el nivel de actividad naranja en que se encuentra.</t>
+          <t>Los habitantes Manizales y quienes se encuentran en ella por algún motivo, han tenido que afrontar en este lunes, 15 de mayo, diferentes fenómenos naturales que les recuerda que el volcán Nevado del Ruiz está en actividad.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-que-indican-del-estado-del-volcan/202328/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-reportan-normalidad-en-manizales-luego-de-sismo-de-magnitud-50/202305/
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y qué indican del estado del volcán?</t>
+          <t>Volcán Nevado del Ruiz: reportan normalidad en Manizales luego de sismo de magnitud 5.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La actividad en la que se mantiene el volcán Nevado del Ruiz arroja unas características que muestran su inestabilidad con indicadores como predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, aumento en la energía sísmica liberada, anomalías térmicas importantes en el fondo del cráter y variaciones de la desgasificación de dióxido de azufre y salida de vapor de agua desde el cráter a la atmósfera.</t>
+          <t>En la madrugada de este domingo, 14 de mayo, se registró un sismo en Colombia se sintió en diferentes partes del país. En principio, el Servicio Geológico Colombiano (SGC) dijo que fue de magnitud 4,3 y luego precisó que fue de 5,0, con epicentro en Acacias, Meta, y una profundidad menor a 30 kilómetros.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/cucuta/articulo/municipios-en-riesgo-por-el-volcan-nevado-del-ruiz-ya-cuentan-con-emisoras-de-emergencia/202318/
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-podria-haber-caida-de-ceniza-en-tres-municipios-del-tolima/202358/
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Municipios en riesgo por el volcán Nevado del Ruiz ya cuentan con emisoras de emergencia</t>
+          <t>Volcán Nevado del Ruiz: podría haber caída de ceniza en tres municipios del Tolima</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Los habitantes de las zonas aledañas al volcán Nevado del Ruiz ya cuentan con cuatro nuevas emisoras de Interés Público de Atención y Prevención de Desastres que fueron autorizadas por el Ministerio de Tecnologías de la Información y Comunicaciones de Colombia (TIC).</t>
+          <t>Este 13 de mayo el Servicio Geológico Colombiano (SGC) publicó un nuevo boletín extraordinario en el cual da detalles sobre la situación del volcán Nevado del Ruiz. En el documento, la entidad advierte que se siguió presentando actividad sísmica debido al contante movimiento de fluidos dentro de los conductos volcánicos.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-que-se-mantiene-la-alerta-naranja-en-el-nevado-del-ruiz/202307/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-podria-hacer-erupcion-en-dias-o-semanas/202342/
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>¿Por qué se mantiene la alerta naranja en el Nevado del Ruiz?</t>
+          <t>Volcán Nevado del Ruiz: ¿podría hacer erupción en días o semanas?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz, debido a que su nivel de actividad continúa en naranja desde que se reportó esta situación a principios de abril.</t>
+          <t>El 30 de marzo el Servicio Geológico Colombiano (SGC) se vio en la obligación de encender las alarmas por el inestable comportamiento del volcán Nevado del Ruiz dado que podría protagonizar la erupción más grande de la última década. Desde entonces, las condiciones no han variado y permanece el riesgo de la emergencia.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-recomiendan-continuar-con-las-medidas-de-prevencion-ante-el-aumento-de-sismos/202311/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/en-caldas-buscan-mejorar-el-sistema-de-alertas-tempranas-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202356/
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: recomiendan continuar con las medidas de prevención ante el aumento de sismos</t>
+          <t>En Caldas buscan mejorar el sistema de alertas tempranas en la zona de influencia del volcán Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+          <t>Los departamentos y municipios que están en la zona de influencia del volcán Nevado del Ruiz avanzan en el proceso de preparación ante una eventual emergencia, teniendo en cuenta el nivel de actividad naranja en que se encuentra.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-por-que-no-hay-que-relajarse-y-que-tiene-que-pasar-para-que-baje-el-nivel-de-actividad/202354/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/nevado-del-ruiz-que-son-las-cenizas-volcanicas-y-que-indican-del-estado-del-volcan/202328/
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: ¿por qué no hay que relajarse y qué tiene que pasar para que baje el nivel de actividad?</t>
+          <t>Nevado del Ruiz: ¿qué son las cenizas volcánicas y qué indican del estado del volcán?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aunque ha pasado más de un mes desde que se elevó a naranja el nivel de actividad del volcán Nevado del Ruiz, la probabilidad de que “haga una erupción mayor a las que ha hecho en los últimos diez años” sigue siendo latente, de acuerdo con el Servicio Geológico Colombiano (SGC).</t>
+          <t>La actividad en la que se mantiene el volcán Nevado del Ruiz arroja unas características que muestran su inestabilidad con indicadores como predominio de la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos, aumento en la energía sísmica liberada, anomalías térmicas importantes en el fondo del cráter y variaciones de la desgasificación de dióxido de azufre y salida de vapor de agua desde el cráter a la atmósfera.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-gobernacion-de-caldas-adecua-vias-para-evacuar-en-caso-de-que-haya-erupcion/202321/
+          <t xml:space="preserve">https://www.semana.com/nacion/cucuta/articulo/municipios-en-riesgo-por-el-volcan-nevado-del-ruiz-ya-cuentan-con-emisoras-de-emergencia/202318/
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: Gobernación de Caldas adecúa vías para evacuar en caso de que haya erupción</t>
+          <t>Municipios en riesgo por el volcán Nevado del Ruiz ya cuentan con emisoras de emergencia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>La Gobernación de Caldas permanece trabajando de manera continua y mancomunadamente, a través de la Secretaría de Infraestructura, con las autoridades municipales de Villamaría y Neira, además del Ejército Nacional, el Instituto Nacional de Vías (Invías) y la comunidad que vive en inmediaciones del volcán Nevado del Ruiz, con el objetivo de garantizar a los habitantes de estos sectores carreteras de evacuación en caso de una posible erupción.</t>
+          <t>Los habitantes de las zonas aledañas al volcán Nevado del Ruiz ya cuentan con cuatro nuevas emisoras de Interés Público de Atención y Prevención de Desastres que fueron autorizadas por el Ministerio de Tecnologías de la Información y Comunicaciones de Colombia (TIC).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atento-esto-es-lo-que-debe-hacer-antes-durante-y-despues-de-la-erupcion-de-un-volcan/202345/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/por-que-se-mantiene-la-alerta-naranja-en-el-nevado-del-ruiz/202307/
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atento: esto es lo que debe hacer antes, durante y después de la erupción de un volcán</t>
+          <t>¿Por qué se mantiene la alerta naranja en el Nevado del Ruiz?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Desde el 30 de marzo, el volcán Nevado del Ruiz se encuentra en un nivel de actividad II, que indica erupción probable en término de días o semanas. La situación de alerta llevó a los organismos de emergencia y autoridades de la zona de influencia a empezar la activación de los planes de emergencia.</t>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz, debido a que su nivel de actividad continúa en naranja desde que se reportó esta situación a principios de abril.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-se-esta-calentando-mas-hay-riesgos/202347/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-recomiendan-continuar-con-las-medidas-de-prevencion-ante-el-aumento-de-sismos/202311/
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?</t>
+          <t>Volcán Nevado del Ruiz: recomiendan continuar con las medidas de prevención ante el aumento de sismos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El director de geoamenazas del Servicio Geológico Colombiano (SGC), John Makario Londoño, entregó un nuevo reporte sobre el comportamiento del volcán Nevado del Ruiz, que amenaza con hacer erupción -desde hace un mes- en término de días o semanas.</t>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-las-cenizas-son-nocivas-para-la-salud/202325/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-por-que-no-hay-que-relajarse-y-que-tiene-que-pasar-para-que-baje-el-nivel-de-actividad/202354/
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Volcán Nevado del Ruiz: ¿las cenizas son nocivas para la salud?</t>
+          <t>Volcán Nevado del Ruiz: ¿por qué no hay que relajarse y qué tiene que pasar para que baje el nivel de actividad?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz sigue en alerta naranja por la probabilidad de hacer erupción en término de días o semanas. Su inestable actividad se ha manifestado con anomalías en el fondo del cráter, incremento en los sismos y emisión continua de cenizas. El Servicio Geológico Colombiano explicó el alcance y complicaciones del último fenómeno.</t>
+          <t>Aunque ha pasado más de un mes desde que se elevó a naranja el nivel de actividad del volcán Nevado del Ruiz, la probabilidad de que “haga una erupción mayor a las que ha hecho en los últimos diez años” sigue siendo latente, de acuerdo con el Servicio Geológico Colombiano (SGC).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atentos-reducen-el-perimetro-de-riesgo-por-posible-erupcion-del-volcan-nevado-del-ruiz/202330/
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/volcan-nevado-del-ruiz-gobernacion-de-caldas-adecua-vias-para-evacuar-en-caso-de-que-haya-erupcion/202321/
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Atentos: reducen el perímetro de riesgo por posible erupción del volcán Nevado del Ruiz</t>
+          <t>Volcán Nevado del Ruiz: Gobernación de Caldas adecúa vías para evacuar en caso de que haya erupción</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>En Manizales, se desarrolló un nuevo Puesto de Mando Unificado para analizar todo lo relacionado con el volcán Nevado del Ruiz, bajo el liderazgo del nuevo director de la Unidad Nacional de Gestión del Riesgo de Desastres, Olmedo López.</t>
+          <t>La Gobernación de Caldas permanece trabajando de manera continua y mancomunadamente, a través de la Secretaría de Infraestructura, con las autoridades municipales de Villamaría y Neira, además del Ejército Nacional, el Instituto Nacional de Vías (Invías) y la comunidad que vive en inmediaciones del volcán Nevado del Ruiz, con el objetivo de garantizar a los habitantes de estos sectores carreteras de evacuación en caso de una posible erupción.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-inestable-asi-registran-las-autoridades-su-actividad/202344/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atento-esto-es-lo-que-debe-hacer-antes-durante-y-despues-de-la-erupcion-de-un-volcan/202345/
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El volcán Nevado del Ruiz sigue inestable: así registran las autoridades su actividad</t>
+          <t>Atento: esto es lo que debe hacer antes, durante y después de la erupción de un volcán</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano avanza en el monitoreo 24/7 sobre el volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja o II, lo que indica erupción probable en término de días o semanas, según la declaratoria entregada desde el 30 de marzo.</t>
+          <t>Desde el 30 de marzo, el volcán Nevado del Ruiz se encuentra en un nivel de actividad II, que indica erupción probable en término de días o semanas. La situación de alerta llevó a los organismos de emergencia y autoridades de la zona de influencia a empezar la activación de los planes de emergencia.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estudiantes-de-cinco-colegios-retomaran-clases-presenciales-luego-de-permanecer-en-casa-por-la-alerta-naranja-en-el-volcan-nevado-de-ruiz/202336/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-se-esta-calentando-mas-hay-riesgos/202347/
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Estudiantes de cinco colegios retomarán clases presenciales luego de permanecer en casa por la alerta naranja en el Volcán Nevado de Ruiz</t>
+          <t>El volcán Nevado del Ruiz se está calentando más: ¿hay riesgos?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tras la declaratoria de alerta naranja por el inminente riesgo de erupción del volcán Nevado del Ruiz, al menos 30 instituciones educativas, ubicadas en el área de influencia, decidieron adoptar la modalidad de clases virtuales como medida preventiva.</t>
+          <t>El director de geoamenazas del Servicio Geológico Colombiano (SGC), John Makario Londoño, entregó un nuevo reporte sobre el comportamiento del volcán Nevado del Ruiz, que amenaza con hacer erupción -desde hace un mes- en término de días o semanas.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/no-paran-los-temblores-en-el-volcan-nevado-del-ruiz-este-es-el-nuevo-reporte-del-servicio-geologico-colombiano/202348/
+          <t xml:space="preserve">https://www.semana.com/nacion/medellin/articulo/volcan-nevado-del-ruiz-las-cenizas-son-nocivas-para-la-salud/202325/
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>No paran los temblores en el volcán Nevado del Ruiz; este es el nuevo reporte del Servicio Geológico Colombiano</t>
+          <t>Volcán Nevado del Ruiz: ¿las cenizas son nocivas para la salud?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+          <t>El volcán Nevado del Ruiz sigue en alerta naranja por la probabilidad de hacer erupción en término de días o semanas. Su inestable actividad se ha manifestado con anomalías en el fondo del cráter, incremento en los sismos y emisión continua de cenizas. El Servicio Geológico Colombiano explicó el alcance y complicaciones del último fenómeno.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atencion-se-registra-temblor-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202314/
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atentos-reducen-el-perimetro-de-riesgo-por-posible-erupcion-del-volcan-nevado-del-ruiz/202330/
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Se registra temblor en la zona de influencia del volcán Nevado del Ruiz</t>
+          <t>Atentos: reducen el perímetro de riesgo por posible erupción del volcán Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>El Servicio Geológico Colombiano confirmó la ocurrencia de un sismo con epicentro en uno de los municipios ubicado en la zona de influencia del volcán Nevado del Ruiz.</t>
+          <t>En Manizales, se desarrolló un nuevo Puesto de Mando Unificado para analizar todo lo relacionado con el volcán Nevado del Ruiz, bajo el liderazgo del nuevo director de la Unidad Nacional de Gestión del Riesgo de Desastres, Olmedo López.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-inestable-asi-registran-las-autoridades-su-actividad/202344/
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz sigue inestable: así registran las autoridades su actividad</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano avanza en el monitoreo 24/7 sobre el volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja o II, lo que indica erupción probable en término de días o semanas, según la declaratoria entregada desde el 30 de marzo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/estudiantes-de-cinco-colegios-retomaran-clases-presenciales-luego-de-permanecer-en-casa-por-la-alerta-naranja-en-el-volcan-nevado-de-ruiz/202336/
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Estudiantes de cinco colegios retomarán clases presenciales luego de permanecer en casa por la alerta naranja en el Volcán Nevado de Ruiz</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tras la declaratoria de alerta naranja por el inminente riesgo de erupción del volcán Nevado del Ruiz, al menos 30 instituciones educativas, ubicadas en el área de influencia, decidieron adoptar la modalidad de clases virtuales como medida preventiva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/no-paran-los-temblores-en-el-volcan-nevado-del-ruiz-este-es-el-nuevo-reporte-del-servicio-geologico-colombiano/202348/
+</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No paran los temblores en el volcán Nevado del Ruiz; este es el nuevo reporte del Servicio Geológico Colombiano</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/atencion-se-registra-temblor-en-la-zona-de-influencia-del-volcan-nevado-del-ruiz/202314/
+</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Se registra temblor en la zona de influencia del volcán Nevado del Ruiz</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano confirmó la ocurrencia de un sismo con epicentro en uno de los municipios ubicado en la zona de influencia del volcán Nevado del Ruiz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/puede-desatarse-una-alerta-roja-en-el-volcan-nevado-del-ruiz-en-los-proximos-dias/202352/
 </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>¿Puede desatarse una alerta roja en el Volcán Nevado del Ruiz en los próximos días?</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Son muchas las inquietudes que surgen entre la comunidad con relación a la actividad del volcán Nevado del Ruiz, que se encuentra en nivel de actividad naranja desde el día 30 de marzo de 2023, por lo que tiene un monitoreo permanente por parte del Servicio Geológico Colombiano.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/el-volcan-nevado-del-ruiz-tiene-un-leve-incremento-en-la-energia-sismica-nuevo-reporte-del-servicio-geologico-colombiano/202305/
+</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>El Volcán Nevado del Ruiz “tiene un leve incremento en la energía sísmica”: nuevo reporte del Servicio Geológico Colombiano</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-sigue-siendo-muy-inestable-en-los-primeros-dias-de-mayo/202354/
+</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz sigue siendo muy inestable en los primeros días de mayo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) sigue monitoreando el volcán Nevado del Ruiz por riesgo de erupción, debido a que su nivel de actividad continua en naranja. Todos los indicadores que analizan los expertos ratifican que la actividad del edificio volcánico sigue siendo muy inestable, pero con probabilidad de que haga erupción en días o semanas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-detectan-una-luz-roja-desde-el-espacio-de-que-se-trata/202326/
+</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: detectan una luz roja desde el espacio, ¿de qué se trata?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Imágenes registradas por satélites pusieron en evidencia un punto rojo emitido desde el volcán Nevado del Ruiz, cuya actividad se mantiene en alerta naranja por el riesgo de hacer la erupción más grande de los últimos diez años, en términos de días o semanas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/articulo/asi-se-ve-el-volcan-nevado-del-ruiz-desde-el-espacio/202349/
+</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Así se ve el volcán Nevado del Ruiz desde el espacio</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano (SGC) puso a delirar a más de uno con una imagen del volcán Nevado del Ruiz desde el espacio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/asi-esta-el-nevado-del-ruiz-las-imagenes-del-volcan-que-ya-cumple-un-mes-en-alerta-naranja/202340/
+</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Así está el Nevado del Ruiz: las imágenes del volcán que ya cumple un mes en alerta naranja</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Un mes después del incremento del nivel de actividad del volcán Nevado del Ruiz de amarilla a naranja, se mantiene el monitoreo permanente al edificio volcánico por parte de los técnicos y profesionales del Servicio Geológico Colombiano (SGC).</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/el-volcan-nevado-del-ruiz-sigue-amenazando-con-erupcion-nuevo-informe-del-servicio-geologico-colombiano/202313/
+</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>El volcán Nevado del Ruiz sigue amenazando con erupción: nuevo informe del Servicio Geológico Colombiano</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>El Servicio Geológico Colombiano emitió un nuevo informe sobre el comportamiento que tuvo este lunes, 1 de mayo, el volcán Nevado del Ruiz, que amenaza con hacer la erupción más grande de la última década, por lo que se mantiene activa la alerta naranja.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.semana.com/nacion/manizales/articulo/volcan-nevado-del-ruiz-estos-son-los-municipios-que-deberian-evacuar-inmediatamente-por-posible-erupcion/202353/
+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Volcán Nevado del Ruiz: estos son los municipios que deberían evacuar inmediatamente por posible erupción</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A un mes de la declaratoria de alerta naranja, la actividad del volcán Nevado del Ruiz continúa siendo muy inestable, así mismo persisten las anomalías térmicas en el fondo del cráter, las cuales se pueden observar desde plataformas de monitoreo satelital; así como la desgasificación de dióxido de azufre a la atmósfera y la salida de vapor de agua en el volcán.</t>
         </is>
       </c>
     </row>
